--- a/doc/v2.2/Appendix I - NIH BD2K BioCADDIE DataMed DATS model v2.2.xlsx
+++ b/doc/v2.2/Appendix I - NIH BD2K BioCADDIE DataMed DATS model v2.2.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="640">
   <si>
     <t>Authors: Susanna-Assunta Sansone, Alejandra Gonzalez-Beltran, Philippe Rocca-Serra, with George Alter, Mary Vardigan, Jeffrey Grethe, Hua Xu and the DataMed development team; and with contributions from the members of the bioCADDIE Metadata WG 3 and WG7</t>
   </si>
@@ -314,6 +314,12 @@
     <t>The nature of the data, as determined for the information collected, the method used and the platform used.</t>
   </si>
   <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>A spatially bounded entity.</t>
+  </si>
+  <si>
     <t>Material</t>
   </si>
   <si>
@@ -406,9 +412,6 @@
   </si>
   <si>
     <t>The geographical extension and span covered by the dataset and its measured dimensions/variables.</t>
-  </si>
-  <si>
-    <t>Place</t>
   </si>
   <si>
     <t>licenses</t>
@@ -1067,10 +1070,16 @@
     <t>The specific device used to generate the data.</t>
   </si>
   <si>
-    <t>A spatially bounded entity.</t>
-  </si>
-  <si>
     <t>It corresponds to Feature in GeoJSON, https://tools.ietf.org/html/rfc7946, geoLocation in DataCite,http://schema.datacite.org/meta/kernel-4.0/ and Place in schema.org</t>
+  </si>
+  <si>
+    <t>Primary identifier for the place.</t>
+  </si>
+  <si>
+    <t>Alternate identifiers for the place.</t>
+  </si>
+  <si>
+    <t>Related identifiers for the place.</t>
   </si>
   <si>
     <t>The name of the place.</t>
@@ -4371,107 +4380,119 @@
       <c r="H49" s="15"/>
     </row>
     <row r="50">
-      <c r="A50" s="96" t="s">
+      <c r="A50" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="B50" s="97"/>
-      <c r="C50" s="98" t="s">
+      <c r="B50" s="95"/>
+      <c r="C50" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="97"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="100"/>
-      <c r="G50" s="101" t="s">
+      <c r="D50" s="70"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="70"/>
+    </row>
+    <row r="51">
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="H50" s="97"/>
-      <c r="I50" s="102"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="103"/>
-      <c r="B51" s="104" t="s">
+      <c r="B52" s="97"/>
+      <c r="C52" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="97"/>
+      <c r="E52" s="99"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="H52" s="97"/>
+      <c r="I52" s="102"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="103"/>
+      <c r="B53" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="105" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="104" t="s">
+      <c r="C53" s="105" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="106">
+      <c r="E53" s="106">
         <v>1.0</v>
       </c>
-      <c r="F51" s="106" t="s">
+      <c r="F53" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="107"/>
-      <c r="H51" s="104"/>
-      <c r="I51" s="108"/>
-    </row>
-    <row r="52">
-      <c r="H52" s="15"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="96" t="s">
-        <v>85</v>
-      </c>
-      <c r="B53" s="97"/>
-      <c r="C53" s="98" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" s="97"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
-      <c r="G53" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" s="97"/>
-      <c r="I53" s="109"/>
+      <c r="G53" s="107"/>
+      <c r="H53" s="104"/>
+      <c r="I53" s="108"/>
     </row>
     <row r="54">
       <c r="H54" s="15"/>
     </row>
     <row r="55">
-      <c r="A55" s="110" t="s">
+      <c r="A55" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="111"/>
+      <c r="B55" s="97"/>
       <c r="C55" s="98" t="s">
         <v>88</v>
       </c>
       <c r="D55" s="97"/>
       <c r="E55" s="99"/>
       <c r="F55" s="99"/>
-      <c r="G55" s="102"/>
+      <c r="G55" s="109" t="s">
+        <v>25</v>
+      </c>
       <c r="H55" s="97"/>
-      <c r="I55" s="102"/>
+      <c r="I55" s="109"/>
     </row>
     <row r="56">
-      <c r="A56" s="112"/>
-      <c r="B56" s="113" t="s">
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="110" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="111"/>
+      <c r="C57" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="97"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="102"/>
+      <c r="H57" s="97"/>
+      <c r="I57" s="102"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="112"/>
+      <c r="B58" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="105" t="s">
-        <v>89</v>
-      </c>
-      <c r="D56" s="104" t="s">
+      <c r="C58" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="106">
+      <c r="E58" s="106">
         <v>1.0</v>
       </c>
-      <c r="F56" s="106" t="s">
+      <c r="F58" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="107"/>
-      <c r="H56" s="104"/>
-      <c r="I56" s="114"/>
-    </row>
-    <row r="57">
-      <c r="H57" s="15"/>
-    </row>
-    <row r="58">
-      <c r="H58" s="15"/>
+      <c r="G58" s="107"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="114"/>
     </row>
     <row r="59">
       <c r="H59" s="15"/>
@@ -7298,6 +7319,12 @@
     </row>
     <row r="1000">
       <c r="H1000" s="15"/>
+    </row>
+    <row r="1001">
+      <c r="H1001" s="15"/>
+    </row>
+    <row r="1002">
+      <c r="H1002" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7337,10 +7364,10 @@
   <sheetData>
     <row r="1" ht="21.0" customHeight="1">
       <c r="A1" s="115" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B1" s="116" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="str">
         <f>HYPERLINK("https://biocaddie.org/group/working-group/working-group-3-descriptive-metadata-datasets","BioCADDIE WG: Metadata WG3")</f>
@@ -7421,7 +7448,7 @@
     </row>
     <row r="3" ht="24.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>1</v>
@@ -7483,7 +7510,7 @@
     <row r="4">
       <c r="A4" s="123"/>
       <c r="B4" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D4" s="124"/>
       <c r="E4" s="125"/>
@@ -7605,22 +7632,22 @@
       <c r="A7" s="131"/>
       <c r="B7" s="42"/>
       <c r="C7" s="132" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D7" s="133" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>52</v>
       </c>
       <c r="F7" s="132" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G7" s="134" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H7" s="135" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I7" s="134"/>
       <c r="J7" s="25"/>
@@ -7655,19 +7682,19 @@
       <c r="A8" s="123"/>
       <c r="B8" s="136"/>
       <c r="C8" s="132" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D8" s="137" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>54</v>
       </c>
       <c r="F8" s="132" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G8" s="134" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="134"/>
@@ -7703,19 +7730,19 @@
       <c r="A9" s="123"/>
       <c r="B9" s="136"/>
       <c r="C9" s="132" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D9" s="137" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>56</v>
       </c>
       <c r="F9" s="132" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G9" s="134" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="134"/>
@@ -7852,7 +7879,7 @@
     <row r="12">
       <c r="A12" s="123"/>
       <c r="B12" s="42" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>22</v>
@@ -7905,23 +7932,23 @@
       <c r="A13" s="123"/>
       <c r="B13" s="42"/>
       <c r="C13" s="139" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D13" s="133" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F13" s="139" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G13" s="139" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="33" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J13" s="135"/>
       <c r="K13" s="127"/>
@@ -7955,19 +7982,19 @@
       <c r="A14" s="123"/>
       <c r="B14" s="42"/>
       <c r="C14" s="140" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D14" s="141" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="F14" s="142" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G14" s="143" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H14" s="144"/>
       <c r="I14" s="134"/>
@@ -8003,25 +8030,25 @@
       <c r="A15" s="123"/>
       <c r="B15" s="42"/>
       <c r="C15" s="140" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D15" s="141" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E15" s="145" t="s">
         <v>65</v>
       </c>
       <c r="F15" s="146" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G15" s="140" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H15" s="144" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I15" s="135" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J15" s="135"/>
       <c r="K15" s="127"/>
@@ -8055,19 +8082,19 @@
       <c r="A16" s="123"/>
       <c r="B16" s="42"/>
       <c r="C16" s="147" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D16" s="148" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E16" s="149" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="150" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G16" s="151" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="134"/>
@@ -8103,24 +8130,24 @@
       <c r="A17" s="123"/>
       <c r="B17" s="42"/>
       <c r="C17" s="132" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D17" s="137" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E17" s="134" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="134" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17" s="134" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H17" s="25"/>
       <c r="I17" s="134"/>
       <c r="J17" s="135" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K17" s="127"/>
       <c r="L17" s="127"/>
@@ -8153,25 +8180,25 @@
       <c r="A18" s="123"/>
       <c r="B18" s="42"/>
       <c r="C18" s="132" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D18" s="137" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E18" s="27" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="152" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G18" s="134" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H18" s="35" t="s">
         <v>44</v>
       </c>
       <c r="I18" s="153" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J18" s="154"/>
       <c r="K18" s="127"/>
@@ -8205,22 +8232,22 @@
       <c r="A19" s="123"/>
       <c r="B19" s="42"/>
       <c r="C19" s="132" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D19" s="137" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E19" s="27" t="s">
         <v>69</v>
       </c>
       <c r="F19" s="132" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G19" s="134" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="154"/>
@@ -8255,22 +8282,22 @@
       <c r="A20" s="123"/>
       <c r="B20" s="42"/>
       <c r="C20" s="132" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D20" s="137" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E20" s="155" t="s">
         <v>49</v>
       </c>
       <c r="F20" s="156" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G20" s="134" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I20" s="155"/>
       <c r="J20" s="154"/>
@@ -8305,19 +8332,19 @@
       <c r="A21" s="123"/>
       <c r="B21" s="42"/>
       <c r="C21" s="132" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D21" s="137" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E21" s="27" t="s">
         <v>49</v>
       </c>
       <c r="F21" s="132" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G21" s="134" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H21" s="154"/>
       <c r="I21" s="155"/>
@@ -8353,19 +8380,19 @@
       <c r="A22" s="123"/>
       <c r="B22" s="42"/>
       <c r="C22" s="132" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D22" s="137" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E22" s="157" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F22" s="132" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G22" s="134" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H22" s="154"/>
       <c r="I22" s="155"/>
@@ -8401,19 +8428,19 @@
       <c r="A23" s="123"/>
       <c r="B23" s="42"/>
       <c r="C23" s="132" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D23" s="137" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E23" s="155" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F23" s="132" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G23" s="134" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H23" s="154"/>
       <c r="I23" s="155"/>
@@ -8449,19 +8476,19 @@
       <c r="A24" s="123"/>
       <c r="B24" s="158"/>
       <c r="C24" s="139" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D24" s="133" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E24" s="159" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F24" s="139" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G24" s="139" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H24" s="35"/>
       <c r="I24" s="46"/>
@@ -8497,19 +8524,19 @@
       <c r="A25" s="123"/>
       <c r="B25" s="42"/>
       <c r="C25" s="139" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D25" s="160" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E25" s="44" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="142" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G25" s="143" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H25" s="35"/>
       <c r="I25" s="46"/>
@@ -8545,19 +8572,19 @@
       <c r="A26" s="123"/>
       <c r="B26" s="42"/>
       <c r="C26" s="139" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D26" s="142" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E26" s="44" t="s">
         <v>38</v>
       </c>
       <c r="F26" s="142" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G26" s="143" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H26" s="35"/>
       <c r="I26" s="46"/>
@@ -8593,19 +8620,19 @@
       <c r="A27" s="123"/>
       <c r="B27" s="161"/>
       <c r="C27" s="139" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D27" s="133" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E27" s="33" t="s">
         <v>61</v>
       </c>
       <c r="F27" s="139" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G27" s="139" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H27" s="162"/>
       <c r="I27" s="46"/>
@@ -8641,19 +8668,19 @@
       <c r="A28" s="123"/>
       <c r="B28" s="161"/>
       <c r="C28" s="139" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D28" s="160" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E28" s="142" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="43" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G28" s="143" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H28" s="162"/>
       <c r="I28" s="163" t="str">
@@ -8692,19 +8719,19 @@
       <c r="A29" s="123"/>
       <c r="B29" s="161"/>
       <c r="C29" s="139" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D29" s="142" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E29" s="142" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="43" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G29" s="143" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H29" s="162"/>
       <c r="I29" s="163" t="str">
@@ -8743,19 +8770,19 @@
       <c r="A30" s="123"/>
       <c r="B30" s="161"/>
       <c r="C30" s="139" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D30" s="142" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E30" s="142" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G30" s="143" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H30" s="162"/>
       <c r="I30" s="163" t="str">
@@ -8794,19 +8821,19 @@
       <c r="A31" s="123"/>
       <c r="B31" s="164"/>
       <c r="C31" s="165" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D31" s="166" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E31" s="167" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F31" s="166" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G31" s="168" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H31" s="169"/>
       <c r="I31" s="170"/>
@@ -8922,22 +8949,22 @@
       <c r="A34" s="131"/>
       <c r="B34" s="42"/>
       <c r="C34" s="132" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D34" s="133" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E34" s="27" t="s">
         <v>52</v>
       </c>
       <c r="F34" s="132" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G34" s="134" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H34" s="135" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I34" s="134"/>
       <c r="J34" s="25"/>
@@ -8972,19 +8999,19 @@
       <c r="A35" s="123"/>
       <c r="B35" s="158"/>
       <c r="C35" s="132" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D35" s="137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E35" s="27" t="s">
         <v>54</v>
       </c>
       <c r="F35" s="132" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G35" s="134" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H35" s="25"/>
       <c r="I35" s="134"/>
@@ -9020,19 +9047,19 @@
       <c r="A36" s="123"/>
       <c r="B36" s="158"/>
       <c r="C36" s="132" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D36" s="137" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E36" s="27" t="s">
         <v>56</v>
       </c>
       <c r="F36" s="132" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G36" s="134" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H36" s="25"/>
       <c r="I36" s="134"/>
@@ -9071,16 +9098,16 @@
         <v>11</v>
       </c>
       <c r="D37" s="137" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E37" s="174" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="139" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G37" s="139" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H37" s="36"/>
       <c r="I37" s="33"/>
@@ -9116,19 +9143,19 @@
       <c r="A38" s="15"/>
       <c r="B38" s="42"/>
       <c r="C38" s="132" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="137" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E38" s="134" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="134" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G38" s="134" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H38" s="36"/>
       <c r="I38" s="33"/>
@@ -9164,23 +9191,23 @@
       <c r="A39" s="15"/>
       <c r="B39" s="42"/>
       <c r="C39" s="139" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D39" s="133" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F39" s="139" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G39" s="139" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H39" s="36"/>
       <c r="I39" s="33" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J39" s="36"/>
       <c r="K39" s="15"/>
@@ -9214,25 +9241,25 @@
       <c r="A40" s="15"/>
       <c r="B40" s="42"/>
       <c r="C40" s="132" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="137" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E40" s="27" t="s">
         <v>40</v>
       </c>
       <c r="F40" s="152" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G40" s="134" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H40" s="35" t="s">
         <v>44</v>
       </c>
       <c r="I40" s="153" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J40" s="36"/>
       <c r="K40" s="15"/>
@@ -9266,22 +9293,22 @@
       <c r="A41" s="15"/>
       <c r="B41" s="42"/>
       <c r="C41" s="139" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D41" s="133" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E41" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="139" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G41" s="139" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H41" s="35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I41" s="46"/>
       <c r="J41" s="35"/>
@@ -9364,25 +9391,25 @@
       <c r="A43" s="15"/>
       <c r="B43" s="175"/>
       <c r="C43" s="140" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D43" s="141" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E43" s="145" t="s">
         <v>65</v>
       </c>
       <c r="F43" s="146" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G43" s="140" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H43" s="144" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I43" s="176" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J43" s="177"/>
       <c r="K43" s="178"/>
@@ -9416,23 +9443,23 @@
       <c r="A44" s="15"/>
       <c r="B44" s="42"/>
       <c r="C44" s="132" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D44" s="137" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E44" s="27" t="s">
         <v>38</v>
       </c>
       <c r="F44" s="132" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G44" s="134" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H44" s="135"/>
       <c r="I44" s="153" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J44" s="154"/>
       <c r="K44" s="15"/>
@@ -9466,22 +9493,22 @@
       <c r="A45" s="15"/>
       <c r="B45" s="42"/>
       <c r="C45" s="132" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D45" s="137" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E45" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F45" s="156" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G45" s="134" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H45" s="135" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I45" s="27"/>
       <c r="J45" s="154"/>
@@ -9516,23 +9543,23 @@
       <c r="A46" s="15"/>
       <c r="B46" s="42"/>
       <c r="C46" s="152" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D46" s="137" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E46" s="157" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="132" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G46" s="134" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H46" s="135"/>
       <c r="I46" s="157" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J46" s="154"/>
       <c r="K46" s="15"/>
@@ -9566,23 +9593,23 @@
       <c r="A47" s="15"/>
       <c r="B47" s="42"/>
       <c r="C47" s="139" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D47" s="141" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F47" s="139" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G47" s="139" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H47" s="35"/>
       <c r="I47" s="46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J47" s="35"/>
       <c r="K47" s="15"/>
@@ -9616,22 +9643,22 @@
       <c r="A48" s="15"/>
       <c r="B48" s="42"/>
       <c r="C48" s="139" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D48" s="133" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E48" s="174" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F48" s="139" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G48" s="139" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I48" s="46"/>
       <c r="J48" s="35"/>
@@ -9666,19 +9693,19 @@
       <c r="A49" s="15"/>
       <c r="B49" s="161"/>
       <c r="C49" s="139" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D49" s="142" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E49" s="27" t="s">
         <v>38</v>
       </c>
       <c r="F49" s="142" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G49" s="143" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H49" s="162"/>
       <c r="I49" s="46"/>
@@ -9714,19 +9741,19 @@
       <c r="A50" s="15"/>
       <c r="B50" s="164"/>
       <c r="C50" s="165" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="166" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E50" s="167" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F50" s="166" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G50" s="168" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H50" s="169"/>
       <c r="I50" s="170"/>
@@ -9844,22 +9871,22 @@
       <c r="A53" s="131"/>
       <c r="B53" s="42"/>
       <c r="C53" s="132" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D53" s="133" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E53" s="27" t="s">
         <v>52</v>
       </c>
       <c r="F53" s="132" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G53" s="134" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H53" s="135" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I53" s="134"/>
       <c r="J53" s="25"/>
@@ -9894,19 +9921,19 @@
       <c r="A54" s="15"/>
       <c r="B54" s="179"/>
       <c r="C54" s="132" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D54" s="137" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E54" s="27" t="s">
         <v>54</v>
       </c>
       <c r="F54" s="132" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G54" s="134" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H54" s="35"/>
       <c r="I54" s="162"/>
@@ -9942,19 +9969,19 @@
       <c r="A55" s="15"/>
       <c r="B55" s="179"/>
       <c r="C55" s="132" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D55" s="137" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E55" s="27" t="s">
         <v>56</v>
       </c>
       <c r="F55" s="132" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G55" s="134" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H55" s="35"/>
       <c r="I55" s="162"/>
@@ -10088,19 +10115,19 @@
       <c r="A58" s="15"/>
       <c r="B58" s="158"/>
       <c r="C58" s="132" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D58" s="137" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E58" s="134" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="134" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G58" s="134" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H58" s="35"/>
       <c r="I58" s="181"/>
@@ -10136,22 +10163,22 @@
       <c r="A59" s="15"/>
       <c r="B59" s="158"/>
       <c r="C59" s="139" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D59" s="133" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E59" s="33" t="s">
         <v>65</v>
       </c>
       <c r="F59" s="182" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G59" s="139" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H59" s="35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I59" s="181"/>
       <c r="J59" s="58"/>
@@ -10186,19 +10213,19 @@
       <c r="A60" s="15"/>
       <c r="B60" s="183"/>
       <c r="C60" s="139" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D60" s="133" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E60" s="174" t="s">
         <v>13</v>
       </c>
       <c r="F60" s="146" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G60" s="140" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H60" s="58"/>
       <c r="I60" s="181"/>
@@ -10234,19 +10261,19 @@
       <c r="A61" s="15"/>
       <c r="B61" s="164"/>
       <c r="C61" s="165" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D61" s="166" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E61" s="167" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F61" s="166" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G61" s="168" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H61" s="169"/>
       <c r="I61" s="170"/>
@@ -10364,22 +10391,22 @@
       <c r="A64" s="131"/>
       <c r="B64" s="42"/>
       <c r="C64" s="132" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D64" s="133" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E64" s="27" t="s">
         <v>52</v>
       </c>
       <c r="F64" s="132" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G64" s="134" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H64" s="135" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I64" s="134"/>
       <c r="J64" s="25"/>
@@ -10414,19 +10441,19 @@
       <c r="A65" s="123"/>
       <c r="B65" s="55"/>
       <c r="C65" s="132" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D65" s="137" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E65" s="27" t="s">
         <v>54</v>
       </c>
       <c r="F65" s="132" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G65" s="134" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H65" s="35"/>
       <c r="I65" s="162"/>
@@ -10462,19 +10489,19 @@
       <c r="A66" s="123"/>
       <c r="B66" s="55"/>
       <c r="C66" s="132" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D66" s="137" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E66" s="27" t="s">
         <v>56</v>
       </c>
       <c r="F66" s="132" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G66" s="134" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H66" s="35"/>
       <c r="I66" s="162"/>
@@ -10560,19 +10587,19 @@
       <c r="A68" s="15"/>
       <c r="B68" s="158"/>
       <c r="C68" s="132" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D68" s="137" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E68" s="134" t="s">
         <v>13</v>
       </c>
       <c r="F68" s="134" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G68" s="134" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H68" s="35"/>
       <c r="I68" s="189"/>
@@ -10608,19 +10635,19 @@
       <c r="A69" s="15"/>
       <c r="B69" s="158"/>
       <c r="C69" s="139" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D69" s="133" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E69" s="33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F69" s="139" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G69" s="139" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H69" s="35"/>
       <c r="I69" s="189"/>
@@ -10656,22 +10683,22 @@
       <c r="A70" s="15"/>
       <c r="B70" s="55"/>
       <c r="C70" s="132" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="133" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E70" s="33" t="s">
         <v>38</v>
       </c>
       <c r="F70" s="139" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G70" s="139" t="s">
         <v>19</v>
       </c>
       <c r="H70" s="35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I70" s="189"/>
       <c r="J70" s="58"/>
@@ -10709,16 +10736,16 @@
         <v>16</v>
       </c>
       <c r="D71" s="133" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E71" s="33" t="s">
         <v>38</v>
       </c>
       <c r="F71" s="139" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G71" s="139" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H71" s="35"/>
       <c r="I71" s="189"/>
@@ -10754,22 +10781,22 @@
       <c r="A72" s="15"/>
       <c r="B72" s="158"/>
       <c r="C72" s="139" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D72" s="133" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E72" s="33" t="s">
         <v>65</v>
       </c>
       <c r="F72" s="182" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G72" s="139" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H72" s="35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I72" s="162"/>
       <c r="J72" s="35"/>
@@ -10804,19 +10831,19 @@
       <c r="A73" s="15"/>
       <c r="B73" s="55"/>
       <c r="C73" s="139" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D73" s="133" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E73" s="162" t="s">
         <v>13</v>
       </c>
       <c r="F73" s="139" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G73" s="139" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H73" s="58"/>
       <c r="I73" s="162"/>
@@ -10852,19 +10879,19 @@
       <c r="A74" s="15"/>
       <c r="B74" s="190"/>
       <c r="C74" s="139" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D74" s="133" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E74" s="33" t="s">
         <v>24</v>
       </c>
       <c r="F74" s="139" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G74" s="139" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H74" s="58"/>
       <c r="I74" s="162"/>
@@ -10900,19 +10927,19 @@
       <c r="A75" s="15"/>
       <c r="B75" s="190"/>
       <c r="C75" s="139" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D75" s="133" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E75" s="33" t="s">
         <v>40</v>
       </c>
       <c r="F75" s="139" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G75" s="139" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H75" s="58"/>
       <c r="I75" s="162"/>
@@ -10951,7 +10978,7 @@
         <v>28</v>
       </c>
       <c r="D76" s="142" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E76" s="44" t="s">
         <v>30</v>
@@ -10960,7 +10987,7 @@
         <v>19</v>
       </c>
       <c r="G76" s="143" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H76" s="181"/>
       <c r="I76" s="162"/>
@@ -10996,19 +11023,19 @@
       <c r="A77" s="15"/>
       <c r="B77" s="192"/>
       <c r="C77" s="165" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D77" s="166" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E77" s="167" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F77" s="166" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G77" s="168" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H77" s="184"/>
       <c r="I77" s="169"/>
@@ -11045,7 +11072,7 @@
       <c r="B78" s="171"/>
       <c r="C78" s="172"/>
       <c r="D78" s="186" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E78" s="15"/>
       <c r="F78" s="172"/>
@@ -11128,22 +11155,22 @@
       <c r="A80" s="131"/>
       <c r="B80" s="42"/>
       <c r="C80" s="132" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D80" s="133" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E80" s="27" t="s">
         <v>52</v>
       </c>
       <c r="F80" s="132" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G80" s="134" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H80" s="135" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I80" s="134"/>
       <c r="J80" s="25"/>
@@ -11178,19 +11205,19 @@
       <c r="A81" s="15"/>
       <c r="B81" s="57"/>
       <c r="C81" s="132" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D81" s="137" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E81" s="27" t="s">
         <v>54</v>
       </c>
       <c r="F81" s="132" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G81" s="134" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H81" s="58"/>
       <c r="I81" s="162"/>
@@ -11226,19 +11253,19 @@
       <c r="A82" s="15"/>
       <c r="B82" s="57"/>
       <c r="C82" s="132" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D82" s="137" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E82" s="27" t="s">
         <v>56</v>
       </c>
       <c r="F82" s="132" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G82" s="134" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H82" s="58"/>
       <c r="I82" s="162"/>
@@ -11322,19 +11349,19 @@
       <c r="A84" s="15"/>
       <c r="B84" s="158"/>
       <c r="C84" s="132" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D84" s="137" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E84" s="134" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="134" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G84" s="134" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H84" s="58"/>
       <c r="I84" s="162"/>
@@ -11370,19 +11397,19 @@
       <c r="A85" s="15"/>
       <c r="B85" s="158"/>
       <c r="C85" s="139" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D85" s="133" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E85" s="33" t="s">
         <v>65</v>
       </c>
       <c r="F85" s="139" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G85" s="139" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H85" s="58"/>
       <c r="I85" s="162"/>
@@ -11418,19 +11445,19 @@
       <c r="A86" s="15"/>
       <c r="B86" s="57"/>
       <c r="C86" s="139" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D86" s="133" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E86" s="33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F86" s="139" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G86" s="139" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H86" s="58"/>
       <c r="I86" s="162"/>
@@ -11466,23 +11493,23 @@
       <c r="A87" s="15"/>
       <c r="B87" s="193"/>
       <c r="C87" s="139" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D87" s="133" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E87" s="33" t="s">
         <v>24</v>
       </c>
       <c r="F87" s="139" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G87" s="139" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H87" s="58"/>
       <c r="I87" s="162" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J87" s="58"/>
       <c r="K87" s="15"/>
@@ -11516,19 +11543,19 @@
       <c r="A88" s="15"/>
       <c r="B88" s="57"/>
       <c r="C88" s="139" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D88" s="133" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E88" s="162" t="s">
         <v>13</v>
       </c>
       <c r="F88" s="139" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G88" s="139" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H88" s="58"/>
       <c r="I88" s="162"/>
@@ -11564,19 +11591,19 @@
       <c r="A89" s="15"/>
       <c r="B89" s="194"/>
       <c r="C89" s="165" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D89" s="166" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E89" s="167" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F89" s="166" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G89" s="168" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H89" s="184"/>
       <c r="I89" s="169"/>
@@ -11694,10 +11721,10 @@
       <c r="A92" s="131"/>
       <c r="B92" s="42"/>
       <c r="C92" s="132" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D92" s="133" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E92" s="27" t="s">
         <v>52</v>
@@ -11706,10 +11733,10 @@
         <v>19</v>
       </c>
       <c r="G92" s="134" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H92" s="135" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I92" s="134"/>
       <c r="J92" s="25"/>
@@ -11744,19 +11771,19 @@
       <c r="A93" s="15"/>
       <c r="B93" s="57"/>
       <c r="C93" s="132" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D93" s="137" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E93" s="27" t="s">
         <v>54</v>
       </c>
       <c r="F93" s="132" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G93" s="134" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H93" s="58"/>
       <c r="I93" s="162"/>
@@ -11792,19 +11819,19 @@
       <c r="A94" s="15"/>
       <c r="B94" s="57"/>
       <c r="C94" s="132" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D94" s="137" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E94" s="27" t="s">
         <v>56</v>
       </c>
       <c r="F94" s="132" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G94" s="134" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H94" s="58"/>
       <c r="I94" s="162"/>
@@ -11843,7 +11870,7 @@
         <v>11</v>
       </c>
       <c r="D95" s="133" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E95" s="162" t="s">
         <v>13</v>
@@ -11852,7 +11879,7 @@
         <v>1.0</v>
       </c>
       <c r="G95" s="139" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H95" s="51"/>
       <c r="I95" s="162"/>
@@ -11888,19 +11915,19 @@
       <c r="A96" s="15"/>
       <c r="B96" s="158"/>
       <c r="C96" s="139" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D96" s="133" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E96" s="195" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F96" s="139" t="s">
         <v>19</v>
       </c>
       <c r="G96" s="139" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H96" s="51"/>
       <c r="I96" s="162"/>
@@ -11939,20 +11966,20 @@
         <v>36</v>
       </c>
       <c r="D97" s="133" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E97" s="33" t="s">
         <v>38</v>
       </c>
       <c r="F97" s="139" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G97" s="139" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H97" s="58"/>
       <c r="I97" s="162" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J97" s="58"/>
       <c r="K97" s="15"/>
@@ -11986,19 +12013,19 @@
       <c r="A98" s="15"/>
       <c r="B98" s="57"/>
       <c r="C98" s="139" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D98" s="133" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E98" s="162" t="s">
         <v>13</v>
       </c>
       <c r="F98" s="139" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G98" s="139" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H98" s="58"/>
       <c r="I98" s="162"/>
@@ -12034,19 +12061,19 @@
       <c r="A99" s="15"/>
       <c r="B99" s="57"/>
       <c r="C99" s="139" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D99" s="133" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E99" s="174" t="s">
         <v>13</v>
       </c>
       <c r="F99" s="139" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G99" s="139" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H99" s="35"/>
       <c r="I99" s="33"/>
@@ -12082,10 +12109,10 @@
       <c r="A100" s="15"/>
       <c r="B100" s="57"/>
       <c r="C100" s="139" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D100" s="133" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E100" s="33" t="s">
         <v>24</v>
@@ -12094,7 +12121,7 @@
         <v>19</v>
       </c>
       <c r="G100" s="139" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H100" s="35" t="s">
         <v>63</v>
@@ -12132,19 +12159,19 @@
       <c r="A101" s="15"/>
       <c r="B101" s="57"/>
       <c r="C101" s="139" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D101" s="133" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E101" s="33" t="s">
         <v>61</v>
       </c>
       <c r="F101" s="139" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G101" s="139" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H101" s="35"/>
       <c r="I101" s="33"/>
@@ -12179,22 +12206,22 @@
     <row r="102">
       <c r="A102" s="15"/>
       <c r="B102" s="158" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C102" s="139" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D102" s="133" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E102" s="33" t="s">
         <v>65</v>
       </c>
       <c r="F102" s="139" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G102" s="139" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H102" s="58"/>
       <c r="I102" s="196"/>
@@ -12230,19 +12257,19 @@
       <c r="A103" s="15"/>
       <c r="B103" s="194"/>
       <c r="C103" s="165" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D103" s="166" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E103" s="167" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F103" s="166" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G103" s="168" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H103" s="184"/>
       <c r="I103" s="174"/>
@@ -12358,22 +12385,22 @@
       <c r="A106" s="15"/>
       <c r="B106" s="199"/>
       <c r="C106" s="200" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D106" s="71" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E106" s="201" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F106" s="202" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G106" s="201" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H106" s="176" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I106" s="201"/>
       <c r="J106" s="203"/>
@@ -12408,19 +12435,19 @@
       <c r="A107" s="15"/>
       <c r="B107" s="204"/>
       <c r="C107" s="205" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D107" s="206" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E107" s="207" t="s">
         <v>13</v>
       </c>
       <c r="F107" s="208" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G107" s="207" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H107" s="209"/>
       <c r="I107" s="207"/>
@@ -12536,19 +12563,19 @@
       <c r="A110" s="15"/>
       <c r="B110" s="199"/>
       <c r="C110" s="212" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D110" s="213" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E110" s="94" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F110" s="212" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G110" s="212" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H110" s="82"/>
       <c r="I110" s="70"/>
@@ -12584,19 +12611,19 @@
       <c r="A111" s="15"/>
       <c r="B111" s="214"/>
       <c r="C111" s="215" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D111" s="206" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E111" s="216" t="s">
         <v>13</v>
       </c>
       <c r="F111" s="215" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G111" s="215" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H111" s="217"/>
       <c r="I111" s="218"/>
@@ -12712,13 +12739,13 @@
       <c r="A114" s="15"/>
       <c r="B114" s="199"/>
       <c r="C114" s="212" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D114" s="213" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E114" s="94" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F114" s="72"/>
       <c r="G114" s="212" t="s">
@@ -12758,17 +12785,17 @@
       <c r="A115" s="15"/>
       <c r="B115" s="90"/>
       <c r="C115" s="212" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D115" s="206" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E115" s="94" t="s">
         <v>13</v>
       </c>
       <c r="F115" s="72"/>
       <c r="G115" s="212" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H115" s="82"/>
       <c r="I115" s="70"/>
@@ -12804,17 +12831,17 @@
       <c r="A116" s="15"/>
       <c r="B116" s="214"/>
       <c r="C116" s="215" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D116" s="206" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E116" s="216" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F116" s="219"/>
       <c r="G116" s="215" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H116" s="217"/>
       <c r="I116" s="218"/>
@@ -12930,13 +12957,13 @@
       <c r="A119" s="15"/>
       <c r="B119" s="95"/>
       <c r="C119" s="81" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D119" s="80" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E119" s="79" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F119" s="81">
         <v>1.0</v>
@@ -12978,19 +13005,19 @@
       <c r="A120" s="15"/>
       <c r="B120" s="70"/>
       <c r="C120" s="212" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D120" s="71" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E120" s="94" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F120" s="212" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G120" s="212" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H120" s="70"/>
       <c r="I120" s="70"/>
@@ -13063,11 +13090,11 @@
     <row r="122">
       <c r="A122" s="15"/>
       <c r="B122" s="59" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C122" s="211"/>
       <c r="D122" s="66" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E122" s="220"/>
       <c r="F122" s="76"/>
@@ -13106,23 +13133,23 @@
       <c r="A123" s="15"/>
       <c r="B123" s="199"/>
       <c r="C123" s="212" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D123" s="71" t="s">
+        <v>260</v>
+      </c>
+      <c r="E123" s="222" t="s">
         <v>259</v>
-      </c>
-      <c r="E123" s="222" t="s">
-        <v>258</v>
       </c>
       <c r="F123" s="212">
         <v>1.0</v>
       </c>
       <c r="G123" s="212" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H123" s="92"/>
       <c r="I123" s="223" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J123" s="92"/>
       <c r="K123" s="15"/>
@@ -13159,7 +13186,7 @@
         <v>36</v>
       </c>
       <c r="D124" s="206" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E124" s="224" t="s">
         <v>38</v>
@@ -13172,10 +13199,10 @@
       </c>
       <c r="H124" s="225"/>
       <c r="I124" s="226" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J124" s="225" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K124" s="15"/>
       <c r="L124" s="15"/>
@@ -13289,19 +13316,19 @@
       <c r="A127" s="15"/>
       <c r="B127" s="199"/>
       <c r="C127" s="202" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D127" s="71" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E127" s="227" t="s">
         <v>52</v>
       </c>
       <c r="F127" s="202" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G127" s="201" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H127" s="82"/>
       <c r="I127" s="228"/>
@@ -13337,19 +13364,19 @@
       <c r="A128" s="15"/>
       <c r="B128" s="90"/>
       <c r="C128" s="202" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D128" s="229" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E128" s="227" t="s">
         <v>54</v>
       </c>
       <c r="F128" s="202" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G128" s="201" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H128" s="82"/>
       <c r="I128" s="228"/>
@@ -13385,19 +13412,19 @@
       <c r="A129" s="15"/>
       <c r="B129" s="90"/>
       <c r="C129" s="202" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D129" s="229" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E129" s="227" t="s">
         <v>56</v>
       </c>
       <c r="F129" s="202" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G129" s="201" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H129" s="82"/>
       <c r="I129" s="228"/>
@@ -13433,19 +13460,19 @@
       <c r="A130" s="15"/>
       <c r="B130" s="90"/>
       <c r="C130" s="230" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D130" s="231" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E130" s="231" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F130" s="232" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G130" s="231" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H130" s="89"/>
       <c r="I130" s="233"/>
@@ -13481,19 +13508,19 @@
       <c r="A131" s="15"/>
       <c r="B131" s="90"/>
       <c r="C131" s="230" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D131" s="231" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E131" s="231" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F131" s="232" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G131" s="231" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H131" s="82"/>
       <c r="I131" s="228"/>
@@ -13532,20 +13559,20 @@
         <v>16</v>
       </c>
       <c r="D132" s="231" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E132" s="234" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F132" s="232" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G132" s="231" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H132" s="82"/>
       <c r="I132" s="228" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J132" s="82"/>
       <c r="K132" s="15"/>
@@ -13579,23 +13606,23 @@
       <c r="A133" s="15"/>
       <c r="B133" s="86"/>
       <c r="C133" s="230" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D133" s="231" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E133" s="234" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F133" s="232" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G133" s="231" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H133" s="82"/>
       <c r="I133" s="94" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J133" s="82"/>
       <c r="K133" s="15"/>
@@ -13629,23 +13656,23 @@
       <c r="A134" s="15"/>
       <c r="B134" s="86"/>
       <c r="C134" s="230" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D134" s="231" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E134" s="234" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F134" s="232" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G134" s="231" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H134" s="82"/>
       <c r="I134" s="94" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J134" s="82"/>
       <c r="K134" s="15"/>
@@ -13679,19 +13706,19 @@
       <c r="A135" s="15"/>
       <c r="B135" s="235"/>
       <c r="C135" s="215" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D135" s="236" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E135" s="237" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F135" s="236" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G135" s="238" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H135" s="207"/>
       <c r="I135" s="218"/>
@@ -13809,25 +13836,25 @@
       <c r="A138" s="131"/>
       <c r="B138" s="199"/>
       <c r="C138" s="202" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D138" s="71" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E138" s="227" t="s">
         <v>52</v>
       </c>
       <c r="F138" s="202" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G138" s="201" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H138" s="176" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I138" s="201" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J138" s="203"/>
       <c r="K138" s="127"/>
@@ -13861,19 +13888,19 @@
       <c r="A139" s="15"/>
       <c r="B139" s="78"/>
       <c r="C139" s="202" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D139" s="229" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E139" s="227" t="s">
         <v>54</v>
       </c>
       <c r="F139" s="202" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G139" s="201" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H139" s="82"/>
       <c r="I139" s="94"/>
@@ -13909,19 +13936,19 @@
       <c r="A140" s="15"/>
       <c r="B140" s="78"/>
       <c r="C140" s="202" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D140" s="229" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E140" s="227" t="s">
         <v>56</v>
       </c>
       <c r="F140" s="202" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G140" s="201" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H140" s="82"/>
       <c r="I140" s="94"/>
@@ -14005,19 +14032,19 @@
       <c r="A142" s="15"/>
       <c r="B142" s="78"/>
       <c r="C142" s="212" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D142" s="71" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E142" s="87" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F142" s="212" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G142" s="212" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H142" s="239"/>
       <c r="I142" s="87"/>
@@ -14053,13 +14080,13 @@
       <c r="A143" s="15"/>
       <c r="B143" s="78"/>
       <c r="C143" s="212" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D143" s="71" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E143" s="87" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F143" s="212" t="s">
         <v>19</v>
@@ -14068,7 +14095,7 @@
         <v>14</v>
       </c>
       <c r="H143" s="239" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I143" s="87"/>
       <c r="J143" s="92"/>
@@ -14103,19 +14130,19 @@
       <c r="A144" s="15"/>
       <c r="B144" s="78"/>
       <c r="C144" s="212" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D144" s="71" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E144" s="87" t="s">
         <v>24</v>
       </c>
       <c r="F144" s="212" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G144" s="212" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H144" s="82"/>
       <c r="I144" s="87"/>
@@ -14151,19 +14178,19 @@
       <c r="A145" s="15"/>
       <c r="B145" s="240"/>
       <c r="C145" s="215" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D145" s="236" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E145" s="237" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F145" s="236" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G145" s="238" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H145" s="218"/>
       <c r="I145" s="241"/>
@@ -14281,22 +14308,22 @@
       <c r="A148" s="131"/>
       <c r="B148" s="199"/>
       <c r="C148" s="202" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D148" s="71" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E148" s="227" t="s">
         <v>52</v>
       </c>
       <c r="F148" s="202" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G148" s="201" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H148" s="176" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I148" s="201"/>
       <c r="J148" s="203"/>
@@ -14331,19 +14358,19 @@
       <c r="A149" s="15"/>
       <c r="B149" s="90"/>
       <c r="C149" s="202" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D149" s="229" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E149" s="227" t="s">
         <v>54</v>
       </c>
       <c r="F149" s="202" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G149" s="201" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H149" s="82"/>
       <c r="I149" s="70"/>
@@ -14379,19 +14406,19 @@
       <c r="A150" s="15"/>
       <c r="B150" s="90"/>
       <c r="C150" s="202" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D150" s="229" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E150" s="227" t="s">
         <v>56</v>
       </c>
       <c r="F150" s="202" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G150" s="201" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H150" s="82"/>
       <c r="I150" s="70"/>
@@ -14475,19 +14502,19 @@
       <c r="A152" s="15"/>
       <c r="B152" s="90"/>
       <c r="C152" s="212" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D152" s="71" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E152" s="94" t="s">
         <v>13</v>
       </c>
       <c r="F152" s="212" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G152" s="212" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H152" s="82"/>
       <c r="I152" s="70"/>
@@ -14523,19 +14550,19 @@
       <c r="A153" s="15"/>
       <c r="B153" s="90"/>
       <c r="C153" s="212" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D153" s="71" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E153" s="87" t="s">
         <v>24</v>
       </c>
       <c r="F153" s="212" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G153" s="212" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H153" s="82"/>
       <c r="I153" s="70"/>
@@ -14571,19 +14598,19 @@
       <c r="A154" s="15"/>
       <c r="B154" s="218"/>
       <c r="C154" s="215" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D154" s="236" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E154" s="237" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F154" s="236" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G154" s="238" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H154" s="218"/>
       <c r="I154" s="218"/>
@@ -14703,22 +14730,22 @@
       <c r="A157" s="131"/>
       <c r="B157" s="199"/>
       <c r="C157" s="202" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D157" s="71" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E157" s="227" t="s">
         <v>52</v>
       </c>
       <c r="F157" s="202" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G157" s="201" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H157" s="176" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I157" s="201"/>
       <c r="J157" s="203"/>
@@ -14753,19 +14780,19 @@
       <c r="A158" s="15"/>
       <c r="B158" s="90"/>
       <c r="C158" s="202" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D158" s="229" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E158" s="227" t="s">
         <v>54</v>
       </c>
       <c r="F158" s="202" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G158" s="201" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H158" s="88"/>
       <c r="I158" s="94"/>
@@ -14801,19 +14828,19 @@
       <c r="A159" s="15"/>
       <c r="B159" s="90"/>
       <c r="C159" s="202" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D159" s="229" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E159" s="227" t="s">
         <v>56</v>
       </c>
       <c r="F159" s="202" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G159" s="201" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H159" s="88"/>
       <c r="I159" s="94"/>
@@ -14904,7 +14931,7 @@
         <v>16</v>
       </c>
       <c r="D161" s="91" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E161" s="87" t="s">
         <v>38</v>
@@ -14949,19 +14976,19 @@
       <c r="A162" s="15"/>
       <c r="B162" s="90"/>
       <c r="C162" s="212" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D162" s="71" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E162" s="87" t="s">
         <v>18</v>
       </c>
       <c r="F162" s="212" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G162" s="212" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H162" s="84"/>
       <c r="I162" s="94"/>
@@ -15045,19 +15072,19 @@
       <c r="A164" s="15"/>
       <c r="B164" s="90"/>
       <c r="C164" s="202" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D164" s="229" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E164" s="201" t="s">
         <v>13</v>
       </c>
       <c r="F164" s="201" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G164" s="201" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H164" s="94"/>
       <c r="I164" s="94"/>
@@ -15093,22 +15120,22 @@
       <c r="A165" s="15"/>
       <c r="B165" s="90"/>
       <c r="C165" s="212" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D165" s="71" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E165" s="94" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F165" s="212" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G165" s="212" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H165" s="92" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I165" s="94"/>
       <c r="J165" s="82"/>
@@ -15143,19 +15170,19 @@
       <c r="A166" s="15"/>
       <c r="B166" s="90"/>
       <c r="C166" s="212" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D166" s="71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E166" s="87" t="s">
         <v>38</v>
       </c>
       <c r="F166" s="212" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G166" s="212" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H166" s="82"/>
       <c r="I166" s="70"/>
@@ -15191,25 +15218,25 @@
       <c r="A167" s="15"/>
       <c r="B167" s="78"/>
       <c r="C167" s="212" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D167" s="71" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E167" s="87" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F167" s="212" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G167" s="212" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H167" s="92" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I167" s="87" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J167" s="82"/>
       <c r="K167" s="15"/>
@@ -15243,19 +15270,19 @@
       <c r="A168" s="15"/>
       <c r="B168" s="240"/>
       <c r="C168" s="215" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D168" s="236" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E168" s="237" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F168" s="236" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G168" s="238" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H168" s="216"/>
       <c r="I168" s="241"/>
@@ -15371,23 +15398,23 @@
       <c r="A171" s="15"/>
       <c r="B171" s="95"/>
       <c r="C171" s="212" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D171" s="71" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E171" s="87" t="s">
         <v>38</v>
       </c>
       <c r="F171" s="212" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G171" s="212" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H171" s="70"/>
       <c r="I171" s="248" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J171" s="70"/>
       <c r="K171" s="15"/>
@@ -15421,23 +15448,23 @@
       <c r="A172" s="15"/>
       <c r="B172" s="249"/>
       <c r="C172" s="212" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D172" s="71" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E172" s="87" t="s">
         <v>38</v>
       </c>
       <c r="F172" s="212" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G172" s="212" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H172" s="70"/>
       <c r="I172" s="94" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J172" s="70"/>
       <c r="K172" s="15"/>
@@ -15471,23 +15498,23 @@
       <c r="A173" s="15"/>
       <c r="B173" s="249"/>
       <c r="C173" s="212" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D173" s="71" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E173" s="87" t="s">
         <v>38</v>
       </c>
       <c r="F173" s="212" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G173" s="212" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H173" s="70"/>
       <c r="I173" s="94" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J173" s="70"/>
       <c r="K173" s="15"/>
@@ -15521,19 +15548,19 @@
       <c r="A174" s="15"/>
       <c r="B174" s="249"/>
       <c r="C174" s="212" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D174" s="71" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E174" s="87" t="s">
         <v>38</v>
       </c>
       <c r="F174" s="212" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G174" s="212" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H174" s="70"/>
       <c r="I174" s="70"/>
@@ -15569,19 +15596,19 @@
       <c r="A175" s="15"/>
       <c r="B175" s="249"/>
       <c r="C175" s="215" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D175" s="236" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E175" s="237" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F175" s="236" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G175" s="238" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H175" s="70"/>
       <c r="I175" s="70"/>
@@ -15654,11 +15681,11 @@
     <row r="177">
       <c r="A177" s="15"/>
       <c r="B177" s="250" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C177" s="72"/>
       <c r="D177" s="94" t="s">
-        <v>328</v>
+        <v>82</v>
       </c>
       <c r="E177" s="70"/>
       <c r="F177" s="72"/>
@@ -15698,20 +15725,20 @@
     <row r="178">
       <c r="A178" s="15"/>
       <c r="B178" s="249"/>
-      <c r="C178" s="212" t="s">
-        <v>34</v>
-      </c>
-      <c r="D178" s="94" t="s">
+      <c r="C178" s="202" t="s">
+        <v>96</v>
+      </c>
+      <c r="D178" s="71" t="s">
         <v>330</v>
       </c>
-      <c r="E178" s="94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F178" s="212" t="s">
-        <v>96</v>
-      </c>
-      <c r="G178" s="212" t="s">
-        <v>102</v>
+      <c r="E178" s="227" t="s">
+        <v>52</v>
+      </c>
+      <c r="F178" s="202" t="s">
+        <v>98</v>
+      </c>
+      <c r="G178" s="201" t="s">
+        <v>99</v>
       </c>
       <c r="H178" s="70"/>
       <c r="I178" s="70"/>
@@ -15746,20 +15773,20 @@
     <row r="179">
       <c r="A179" s="15"/>
       <c r="B179" s="249"/>
-      <c r="C179" s="212" t="s">
-        <v>119</v>
-      </c>
-      <c r="D179" s="71" t="s">
+      <c r="C179" s="202" t="s">
+        <v>101</v>
+      </c>
+      <c r="D179" s="229" t="s">
         <v>331</v>
       </c>
-      <c r="E179" s="94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F179" s="212" t="s">
-        <v>96</v>
-      </c>
-      <c r="G179" s="212" t="s">
-        <v>102</v>
+      <c r="E179" s="227" t="s">
+        <v>54</v>
+      </c>
+      <c r="F179" s="202" t="s">
+        <v>103</v>
+      </c>
+      <c r="G179" s="201" t="s">
+        <v>104</v>
       </c>
       <c r="H179" s="70"/>
       <c r="I179" s="70"/>
@@ -15794,20 +15821,20 @@
     <row r="180">
       <c r="A180" s="15"/>
       <c r="B180" s="249"/>
-      <c r="C180" s="212" t="s">
+      <c r="C180" s="202" t="s">
+        <v>105</v>
+      </c>
+      <c r="D180" s="229" t="s">
         <v>332</v>
       </c>
-      <c r="D180" s="71" t="s">
-        <v>333</v>
-      </c>
-      <c r="E180" s="94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F180" s="212" t="s">
-        <v>96</v>
-      </c>
-      <c r="G180" s="212" t="s">
-        <v>102</v>
+      <c r="E180" s="227" t="s">
+        <v>56</v>
+      </c>
+      <c r="F180" s="202" t="s">
+        <v>103</v>
+      </c>
+      <c r="G180" s="201" t="s">
+        <v>104</v>
       </c>
       <c r="H180" s="70"/>
       <c r="I180" s="70"/>
@@ -15843,24 +15870,22 @@
       <c r="A181" s="15"/>
       <c r="B181" s="249"/>
       <c r="C181" s="212" t="s">
-        <v>334</v>
-      </c>
-      <c r="D181" s="71" t="s">
-        <v>335</v>
+        <v>34</v>
+      </c>
+      <c r="D181" s="94" t="s">
+        <v>333</v>
       </c>
       <c r="E181" s="94" t="s">
         <v>13</v>
       </c>
       <c r="F181" s="212" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G181" s="212" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H181" s="70"/>
-      <c r="I181" s="248" t="s">
-        <v>336</v>
-      </c>
+      <c r="I181" s="70"/>
       <c r="J181" s="70"/>
       <c r="K181" s="15"/>
       <c r="L181" s="15"/>
@@ -15893,19 +15918,19 @@
       <c r="A182" s="15"/>
       <c r="B182" s="249"/>
       <c r="C182" s="212" t="s">
-        <v>337</v>
+        <v>120</v>
       </c>
       <c r="D182" s="71" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E182" s="94" t="s">
-        <v>339</v>
+        <v>13</v>
       </c>
       <c r="F182" s="212" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G182" s="212" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H182" s="70"/>
       <c r="I182" s="70"/>
@@ -15941,19 +15966,19 @@
       <c r="A183" s="15"/>
       <c r="B183" s="249"/>
       <c r="C183" s="212" t="s">
-        <v>154</v>
+        <v>335</v>
       </c>
       <c r="D183" s="71" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E183" s="94" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="F183" s="212" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G183" s="212" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H183" s="70"/>
       <c r="I183" s="70"/>
@@ -15987,15 +16012,27 @@
     </row>
     <row r="184">
       <c r="A184" s="15"/>
-      <c r="B184" s="171"/>
-      <c r="C184" s="172"/>
-      <c r="D184" s="173"/>
-      <c r="E184" s="15"/>
-      <c r="F184" s="172"/>
-      <c r="G184" s="172"/>
-      <c r="H184" s="15"/>
-      <c r="I184" s="15"/>
-      <c r="J184" s="15"/>
+      <c r="B184" s="249"/>
+      <c r="C184" s="212" t="s">
+        <v>337</v>
+      </c>
+      <c r="D184" s="71" t="s">
+        <v>338</v>
+      </c>
+      <c r="E184" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F184" s="212" t="s">
+        <v>98</v>
+      </c>
+      <c r="G184" s="212" t="s">
+        <v>104</v>
+      </c>
+      <c r="H184" s="70"/>
+      <c r="I184" s="248" t="s">
+        <v>339</v>
+      </c>
+      <c r="J184" s="70"/>
       <c r="K184" s="15"/>
       <c r="L184" s="15"/>
       <c r="M184" s="15"/>
@@ -16025,21 +16062,25 @@
     </row>
     <row r="185">
       <c r="A185" s="15"/>
-      <c r="B185" s="96" t="s">
-        <v>81</v>
-      </c>
-      <c r="C185" s="99"/>
-      <c r="D185" s="98" t="s">
+      <c r="B185" s="249"/>
+      <c r="C185" s="212" t="s">
+        <v>340</v>
+      </c>
+      <c r="D185" s="71" t="s">
         <v>341</v>
       </c>
-      <c r="E185" s="97"/>
-      <c r="F185" s="99"/>
-      <c r="G185" s="100"/>
-      <c r="H185" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="I185" s="97"/>
-      <c r="J185" s="102"/>
+      <c r="E185" s="94" t="s">
+        <v>342</v>
+      </c>
+      <c r="F185" s="212" t="s">
+        <v>98</v>
+      </c>
+      <c r="G185" s="212" t="s">
+        <v>104</v>
+      </c>
+      <c r="H185" s="70"/>
+      <c r="I185" s="70"/>
+      <c r="J185" s="70"/>
       <c r="K185" s="15"/>
       <c r="L185" s="15"/>
       <c r="M185" s="15"/>
@@ -16069,27 +16110,25 @@
     </row>
     <row r="186">
       <c r="A186" s="15"/>
-      <c r="B186" s="252"/>
-      <c r="C186" s="253" t="s">
-        <v>94</v>
-      </c>
-      <c r="D186" s="254" t="s">
-        <v>342</v>
-      </c>
-      <c r="E186" s="255" t="s">
-        <v>52</v>
-      </c>
-      <c r="F186" s="253" t="s">
-        <v>96</v>
-      </c>
-      <c r="G186" s="256" t="s">
-        <v>97</v>
-      </c>
-      <c r="H186" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="I186" s="257"/>
-      <c r="J186" s="258"/>
+      <c r="B186" s="249"/>
+      <c r="C186" s="212" t="s">
+        <v>155</v>
+      </c>
+      <c r="D186" s="71" t="s">
+        <v>343</v>
+      </c>
+      <c r="E186" s="94" t="s">
+        <v>157</v>
+      </c>
+      <c r="F186" s="212" t="s">
+        <v>103</v>
+      </c>
+      <c r="G186" s="212" t="s">
+        <v>104</v>
+      </c>
+      <c r="H186" s="70"/>
+      <c r="I186" s="70"/>
+      <c r="J186" s="70"/>
       <c r="K186" s="15"/>
       <c r="L186" s="15"/>
       <c r="M186" s="15"/>
@@ -16119,25 +16158,15 @@
     </row>
     <row r="187">
       <c r="A187" s="15"/>
-      <c r="B187" s="103"/>
-      <c r="C187" s="253" t="s">
-        <v>99</v>
-      </c>
-      <c r="D187" s="259" t="s">
-        <v>343</v>
-      </c>
-      <c r="E187" s="255" t="s">
-        <v>54</v>
-      </c>
-      <c r="F187" s="253" t="s">
-        <v>101</v>
-      </c>
-      <c r="G187" s="256" t="s">
-        <v>102</v>
-      </c>
-      <c r="H187" s="107"/>
-      <c r="I187" s="257"/>
-      <c r="J187" s="260"/>
+      <c r="B187" s="171"/>
+      <c r="C187" s="172"/>
+      <c r="D187" s="173"/>
+      <c r="E187" s="15"/>
+      <c r="F187" s="172"/>
+      <c r="G187" s="172"/>
+      <c r="H187" s="15"/>
+      <c r="I187" s="15"/>
+      <c r="J187" s="15"/>
       <c r="K187" s="15"/>
       <c r="L187" s="15"/>
       <c r="M187" s="15"/>
@@ -16167,25 +16196,21 @@
     </row>
     <row r="188">
       <c r="A188" s="15"/>
-      <c r="B188" s="103"/>
-      <c r="C188" s="253" t="s">
-        <v>103</v>
-      </c>
-      <c r="D188" s="259" t="s">
+      <c r="B188" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="C188" s="99"/>
+      <c r="D188" s="98" t="s">
         <v>344</v>
       </c>
-      <c r="E188" s="255" t="s">
-        <v>56</v>
-      </c>
-      <c r="F188" s="253" t="s">
-        <v>101</v>
-      </c>
-      <c r="G188" s="256" t="s">
-        <v>102</v>
-      </c>
-      <c r="H188" s="107"/>
-      <c r="I188" s="257"/>
-      <c r="J188" s="260"/>
+      <c r="E188" s="97"/>
+      <c r="F188" s="99"/>
+      <c r="G188" s="100"/>
+      <c r="H188" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="I188" s="97"/>
+      <c r="J188" s="102"/>
       <c r="K188" s="15"/>
       <c r="L188" s="15"/>
       <c r="M188" s="15"/>
@@ -16215,25 +16240,27 @@
     </row>
     <row r="189">
       <c r="A189" s="15"/>
-      <c r="B189" s="103"/>
-      <c r="C189" s="106" t="s">
-        <v>34</v>
-      </c>
-      <c r="D189" s="105" t="s">
-        <v>84</v>
-      </c>
-      <c r="E189" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F189" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="G189" s="106" t="s">
-        <v>14</v>
-      </c>
-      <c r="H189" s="114"/>
-      <c r="I189" s="104"/>
-      <c r="J189" s="108"/>
+      <c r="B189" s="252"/>
+      <c r="C189" s="253" t="s">
+        <v>96</v>
+      </c>
+      <c r="D189" s="254" t="s">
+        <v>345</v>
+      </c>
+      <c r="E189" s="255" t="s">
+        <v>52</v>
+      </c>
+      <c r="F189" s="253" t="s">
+        <v>98</v>
+      </c>
+      <c r="G189" s="256" t="s">
+        <v>99</v>
+      </c>
+      <c r="H189" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="I189" s="257"/>
+      <c r="J189" s="258"/>
       <c r="K189" s="15"/>
       <c r="L189" s="15"/>
       <c r="M189" s="15"/>
@@ -16264,23 +16291,23 @@
     <row r="190">
       <c r="A190" s="15"/>
       <c r="B190" s="103"/>
-      <c r="C190" s="261" t="s">
-        <v>119</v>
-      </c>
-      <c r="D190" s="254" t="s">
-        <v>345</v>
-      </c>
-      <c r="E190" s="262" t="s">
-        <v>13</v>
-      </c>
-      <c r="F190" s="261" t="s">
-        <v>96</v>
-      </c>
-      <c r="G190" s="261" t="s">
-        <v>97</v>
+      <c r="C190" s="253" t="s">
+        <v>101</v>
+      </c>
+      <c r="D190" s="259" t="s">
+        <v>346</v>
+      </c>
+      <c r="E190" s="255" t="s">
+        <v>54</v>
+      </c>
+      <c r="F190" s="253" t="s">
+        <v>103</v>
+      </c>
+      <c r="G190" s="256" t="s">
+        <v>104</v>
       </c>
       <c r="H190" s="107"/>
-      <c r="I190" s="263"/>
+      <c r="I190" s="257"/>
       <c r="J190" s="260"/>
       <c r="K190" s="15"/>
       <c r="L190" s="15"/>
@@ -16312,25 +16339,23 @@
     <row r="191">
       <c r="A191" s="15"/>
       <c r="B191" s="103"/>
-      <c r="C191" s="261" t="s">
-        <v>346</v>
-      </c>
-      <c r="D191" s="254" t="s">
+      <c r="C191" s="253" t="s">
+        <v>105</v>
+      </c>
+      <c r="D191" s="259" t="s">
         <v>347</v>
       </c>
-      <c r="E191" s="263" t="s">
-        <v>348</v>
-      </c>
-      <c r="F191" s="261" t="s">
-        <v>101</v>
-      </c>
-      <c r="G191" s="261" t="s">
-        <v>102</v>
-      </c>
-      <c r="H191" s="107" t="s">
-        <v>311</v>
-      </c>
-      <c r="I191" s="263"/>
+      <c r="E191" s="255" t="s">
+        <v>56</v>
+      </c>
+      <c r="F191" s="253" t="s">
+        <v>103</v>
+      </c>
+      <c r="G191" s="256" t="s">
+        <v>104</v>
+      </c>
+      <c r="H191" s="107"/>
+      <c r="I191" s="257"/>
       <c r="J191" s="260"/>
       <c r="K191" s="15"/>
       <c r="L191" s="15"/>
@@ -16362,26 +16387,24 @@
     <row r="192">
       <c r="A192" s="15"/>
       <c r="B192" s="103"/>
-      <c r="C192" s="261" t="s">
-        <v>349</v>
-      </c>
-      <c r="D192" s="254" t="s">
-        <v>350</v>
-      </c>
-      <c r="E192" s="263" t="s">
-        <v>351</v>
-      </c>
-      <c r="F192" s="261" t="s">
-        <v>101</v>
-      </c>
-      <c r="G192" s="261" t="s">
-        <v>102</v>
-      </c>
-      <c r="H192" s="264" t="s">
-        <v>352</v>
-      </c>
-      <c r="I192" s="265"/>
-      <c r="J192" s="260"/>
+      <c r="C192" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="D192" s="105" t="s">
+        <v>86</v>
+      </c>
+      <c r="E192" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F192" s="106">
+        <v>1.0</v>
+      </c>
+      <c r="G192" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="H192" s="114"/>
+      <c r="I192" s="104"/>
+      <c r="J192" s="108"/>
       <c r="K192" s="15"/>
       <c r="L192" s="15"/>
       <c r="M192" s="15"/>
@@ -16413,24 +16436,22 @@
       <c r="A193" s="15"/>
       <c r="B193" s="103"/>
       <c r="C193" s="261" t="s">
-        <v>353</v>
+        <v>120</v>
       </c>
       <c r="D193" s="254" t="s">
-        <v>354</v>
-      </c>
-      <c r="E193" s="263" t="s">
-        <v>355</v>
+        <v>348</v>
+      </c>
+      <c r="E193" s="262" t="s">
+        <v>13</v>
       </c>
       <c r="F193" s="261" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G193" s="261" t="s">
-        <v>102</v>
-      </c>
-      <c r="H193" s="107" t="s">
-        <v>311</v>
-      </c>
-      <c r="I193" s="265"/>
+        <v>99</v>
+      </c>
+      <c r="H193" s="107"/>
+      <c r="I193" s="263"/>
       <c r="J193" s="260"/>
       <c r="K193" s="15"/>
       <c r="L193" s="15"/>
@@ -16463,24 +16484,24 @@
       <c r="A194" s="15"/>
       <c r="B194" s="103"/>
       <c r="C194" s="261" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D194" s="254" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E194" s="263" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F194" s="261" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G194" s="261" t="s">
-        <v>102</v>
-      </c>
-      <c r="H194" s="264" t="s">
-        <v>359</v>
-      </c>
-      <c r="I194" s="265"/>
+        <v>104</v>
+      </c>
+      <c r="H194" s="107" t="s">
+        <v>312</v>
+      </c>
+      <c r="I194" s="263"/>
       <c r="J194" s="260"/>
       <c r="K194" s="15"/>
       <c r="L194" s="15"/>
@@ -16511,23 +16532,25 @@
     </row>
     <row r="195">
       <c r="A195" s="15"/>
-      <c r="B195" s="266"/>
+      <c r="B195" s="103"/>
       <c r="C195" s="261" t="s">
-        <v>110</v>
+        <v>352</v>
       </c>
       <c r="D195" s="254" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E195" s="263" t="s">
-        <v>38</v>
+        <v>354</v>
       </c>
       <c r="F195" s="261" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G195" s="261" t="s">
-        <v>102</v>
-      </c>
-      <c r="H195" s="107"/>
+        <v>104</v>
+      </c>
+      <c r="H195" s="264" t="s">
+        <v>355</v>
+      </c>
       <c r="I195" s="265"/>
       <c r="J195" s="260"/>
       <c r="K195" s="15"/>
@@ -16559,28 +16582,26 @@
     </row>
     <row r="196">
       <c r="A196" s="15"/>
-      <c r="B196" s="266"/>
+      <c r="B196" s="103"/>
       <c r="C196" s="261" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D196" s="254" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E196" s="263" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F196" s="261" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G196" s="261" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H196" s="107" t="s">
-        <v>311</v>
-      </c>
-      <c r="I196" s="267" t="s">
-        <v>364</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="I196" s="265"/>
       <c r="J196" s="260"/>
       <c r="K196" s="15"/>
       <c r="L196" s="15"/>
@@ -16613,21 +16634,23 @@
       <c r="A197" s="15"/>
       <c r="B197" s="103"/>
       <c r="C197" s="261" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D197" s="254" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E197" s="263" t="s">
-        <v>38</v>
+        <v>361</v>
       </c>
       <c r="F197" s="261" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G197" s="261" t="s">
-        <v>97</v>
-      </c>
-      <c r="H197" s="260"/>
+        <v>104</v>
+      </c>
+      <c r="H197" s="264" t="s">
+        <v>362</v>
+      </c>
       <c r="I197" s="265"/>
       <c r="J197" s="260"/>
       <c r="K197" s="15"/>
@@ -16659,25 +16682,25 @@
     </row>
     <row r="198">
       <c r="A198" s="15"/>
-      <c r="B198" s="268"/>
-      <c r="C198" s="269" t="s">
-        <v>154</v>
-      </c>
-      <c r="D198" s="270" t="s">
-        <v>155</v>
-      </c>
-      <c r="E198" s="271" t="s">
-        <v>156</v>
-      </c>
-      <c r="F198" s="270" t="s">
-        <v>101</v>
-      </c>
-      <c r="G198" s="272" t="s">
-        <v>102</v>
-      </c>
-      <c r="H198" s="273"/>
-      <c r="I198" s="273"/>
-      <c r="J198" s="273"/>
+      <c r="B198" s="266"/>
+      <c r="C198" s="261" t="s">
+        <v>112</v>
+      </c>
+      <c r="D198" s="254" t="s">
+        <v>363</v>
+      </c>
+      <c r="E198" s="263" t="s">
+        <v>38</v>
+      </c>
+      <c r="F198" s="261" t="s">
+        <v>103</v>
+      </c>
+      <c r="G198" s="261" t="s">
+        <v>104</v>
+      </c>
+      <c r="H198" s="107"/>
+      <c r="I198" s="265"/>
+      <c r="J198" s="260"/>
       <c r="K198" s="15"/>
       <c r="L198" s="15"/>
       <c r="M198" s="15"/>
@@ -16707,15 +16730,29 @@
     </row>
     <row r="199">
       <c r="A199" s="15"/>
-      <c r="B199" s="171"/>
-      <c r="C199" s="172"/>
-      <c r="D199" s="173"/>
-      <c r="E199" s="15"/>
-      <c r="F199" s="172"/>
-      <c r="G199" s="172"/>
-      <c r="H199" s="15"/>
-      <c r="I199" s="15"/>
-      <c r="J199" s="15"/>
+      <c r="B199" s="266"/>
+      <c r="C199" s="261" t="s">
+        <v>364</v>
+      </c>
+      <c r="D199" s="254" t="s">
+        <v>365</v>
+      </c>
+      <c r="E199" s="263" t="s">
+        <v>366</v>
+      </c>
+      <c r="F199" s="261" t="s">
+        <v>103</v>
+      </c>
+      <c r="G199" s="261" t="s">
+        <v>104</v>
+      </c>
+      <c r="H199" s="107" t="s">
+        <v>312</v>
+      </c>
+      <c r="I199" s="267" t="s">
+        <v>367</v>
+      </c>
+      <c r="J199" s="260"/>
       <c r="K199" s="15"/>
       <c r="L199" s="15"/>
       <c r="M199" s="15"/>
@@ -16745,21 +16782,25 @@
     </row>
     <row r="200">
       <c r="A200" s="15"/>
-      <c r="B200" s="96" t="s">
-        <v>85</v>
-      </c>
-      <c r="C200" s="99"/>
-      <c r="D200" s="98" t="s">
-        <v>86</v>
-      </c>
-      <c r="E200" s="97"/>
-      <c r="F200" s="99"/>
-      <c r="G200" s="99"/>
-      <c r="H200" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="I200" s="97"/>
-      <c r="J200" s="109"/>
+      <c r="B200" s="103"/>
+      <c r="C200" s="261" t="s">
+        <v>368</v>
+      </c>
+      <c r="D200" s="254" t="s">
+        <v>369</v>
+      </c>
+      <c r="E200" s="263" t="s">
+        <v>38</v>
+      </c>
+      <c r="F200" s="261" t="s">
+        <v>103</v>
+      </c>
+      <c r="G200" s="261" t="s">
+        <v>99</v>
+      </c>
+      <c r="H200" s="260"/>
+      <c r="I200" s="265"/>
+      <c r="J200" s="260"/>
       <c r="K200" s="15"/>
       <c r="L200" s="15"/>
       <c r="M200" s="15"/>
@@ -16789,27 +16830,25 @@
     </row>
     <row r="201">
       <c r="A201" s="15"/>
-      <c r="B201" s="252"/>
-      <c r="C201" s="253" t="s">
-        <v>94</v>
-      </c>
-      <c r="D201" s="254" t="s">
-        <v>367</v>
-      </c>
-      <c r="E201" s="255" t="s">
-        <v>52</v>
-      </c>
-      <c r="F201" s="253" t="s">
-        <v>96</v>
-      </c>
-      <c r="G201" s="256" t="s">
-        <v>97</v>
-      </c>
-      <c r="H201" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="I201" s="257"/>
-      <c r="J201" s="258"/>
+      <c r="B201" s="268"/>
+      <c r="C201" s="269" t="s">
+        <v>155</v>
+      </c>
+      <c r="D201" s="270" t="s">
+        <v>156</v>
+      </c>
+      <c r="E201" s="271" t="s">
+        <v>157</v>
+      </c>
+      <c r="F201" s="270" t="s">
+        <v>103</v>
+      </c>
+      <c r="G201" s="272" t="s">
+        <v>104</v>
+      </c>
+      <c r="H201" s="273"/>
+      <c r="I201" s="273"/>
+      <c r="J201" s="273"/>
       <c r="K201" s="15"/>
       <c r="L201" s="15"/>
       <c r="M201" s="15"/>
@@ -16839,25 +16878,15 @@
     </row>
     <row r="202">
       <c r="A202" s="15"/>
-      <c r="B202" s="274"/>
-      <c r="C202" s="253" t="s">
-        <v>99</v>
-      </c>
-      <c r="D202" s="259" t="s">
-        <v>368</v>
-      </c>
-      <c r="E202" s="255" t="s">
-        <v>54</v>
-      </c>
-      <c r="F202" s="253" t="s">
-        <v>101</v>
-      </c>
-      <c r="G202" s="256" t="s">
-        <v>102</v>
-      </c>
-      <c r="H202" s="107"/>
-      <c r="I202" s="257"/>
-      <c r="J202" s="107"/>
+      <c r="B202" s="171"/>
+      <c r="C202" s="172"/>
+      <c r="D202" s="173"/>
+      <c r="E202" s="15"/>
+      <c r="F202" s="172"/>
+      <c r="G202" s="172"/>
+      <c r="H202" s="15"/>
+      <c r="I202" s="15"/>
+      <c r="J202" s="15"/>
       <c r="K202" s="15"/>
       <c r="L202" s="15"/>
       <c r="M202" s="15"/>
@@ -16887,25 +16916,21 @@
     </row>
     <row r="203">
       <c r="A203" s="15"/>
-      <c r="B203" s="274"/>
-      <c r="C203" s="253" t="s">
-        <v>103</v>
-      </c>
-      <c r="D203" s="259" t="s">
-        <v>369</v>
-      </c>
-      <c r="E203" s="255" t="s">
-        <v>56</v>
-      </c>
-      <c r="F203" s="253" t="s">
-        <v>101</v>
-      </c>
-      <c r="G203" s="256" t="s">
-        <v>102</v>
-      </c>
-      <c r="H203" s="107"/>
-      <c r="I203" s="257"/>
-      <c r="J203" s="107"/>
+      <c r="B203" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="C203" s="99"/>
+      <c r="D203" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="E203" s="97"/>
+      <c r="F203" s="99"/>
+      <c r="G203" s="99"/>
+      <c r="H203" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="I203" s="97"/>
+      <c r="J203" s="109"/>
       <c r="K203" s="15"/>
       <c r="L203" s="15"/>
       <c r="M203" s="15"/>
@@ -16935,25 +16960,27 @@
     </row>
     <row r="204">
       <c r="A204" s="15"/>
-      <c r="B204" s="274"/>
+      <c r="B204" s="252"/>
       <c r="C204" s="253" t="s">
+        <v>96</v>
+      </c>
+      <c r="D204" s="254" t="s">
         <v>370</v>
       </c>
-      <c r="D204" s="254" t="s">
-        <v>371</v>
-      </c>
-      <c r="E204" s="257" t="s">
-        <v>13</v>
-      </c>
-      <c r="F204" s="261">
-        <v>1.0</v>
-      </c>
-      <c r="G204" s="261" t="s">
-        <v>97</v>
-      </c>
-      <c r="H204" s="107"/>
+      <c r="E204" s="255" t="s">
+        <v>52</v>
+      </c>
+      <c r="F204" s="253" t="s">
+        <v>98</v>
+      </c>
+      <c r="G204" s="256" t="s">
+        <v>99</v>
+      </c>
+      <c r="H204" s="107" t="s">
+        <v>100</v>
+      </c>
       <c r="I204" s="257"/>
-      <c r="J204" s="107"/>
+      <c r="J204" s="258"/>
       <c r="K204" s="15"/>
       <c r="L204" s="15"/>
       <c r="M204" s="15"/>
@@ -16985,19 +17012,19 @@
       <c r="A205" s="15"/>
       <c r="B205" s="274"/>
       <c r="C205" s="253" t="s">
-        <v>372</v>
-      </c>
-      <c r="D205" s="254" t="s">
-        <v>373</v>
-      </c>
-      <c r="E205" s="257" t="s">
-        <v>13</v>
-      </c>
-      <c r="F205" s="261">
-        <v>1.0</v>
-      </c>
-      <c r="G205" s="261" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="D205" s="259" t="s">
+        <v>371</v>
+      </c>
+      <c r="E205" s="255" t="s">
+        <v>54</v>
+      </c>
+      <c r="F205" s="253" t="s">
+        <v>103</v>
+      </c>
+      <c r="G205" s="256" t="s">
+        <v>104</v>
       </c>
       <c r="H205" s="107"/>
       <c r="I205" s="257"/>
@@ -17031,21 +17058,21 @@
     </row>
     <row r="206">
       <c r="A206" s="15"/>
-      <c r="B206" s="103"/>
+      <c r="B206" s="274"/>
       <c r="C206" s="253" t="s">
-        <v>374</v>
-      </c>
-      <c r="D206" s="254" t="s">
-        <v>375</v>
-      </c>
-      <c r="E206" s="257" t="s">
-        <v>13</v>
-      </c>
-      <c r="F206" s="261" t="s">
-        <v>101</v>
-      </c>
-      <c r="G206" s="261" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="D206" s="259" t="s">
+        <v>372</v>
+      </c>
+      <c r="E206" s="255" t="s">
+        <v>56</v>
+      </c>
+      <c r="F206" s="253" t="s">
+        <v>103</v>
+      </c>
+      <c r="G206" s="256" t="s">
+        <v>104</v>
       </c>
       <c r="H206" s="107"/>
       <c r="I206" s="257"/>
@@ -17079,12 +17106,12 @@
     </row>
     <row r="207">
       <c r="A207" s="15"/>
-      <c r="B207" s="103"/>
+      <c r="B207" s="274"/>
       <c r="C207" s="253" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D207" s="254" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E207" s="257" t="s">
         <v>13</v>
@@ -17093,7 +17120,7 @@
         <v>1.0</v>
       </c>
       <c r="G207" s="261" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H207" s="107"/>
       <c r="I207" s="257"/>
@@ -17127,25 +17154,25 @@
     </row>
     <row r="208">
       <c r="A208" s="15"/>
-      <c r="B208" s="103"/>
-      <c r="C208" s="275" t="s">
-        <v>378</v>
+      <c r="B208" s="274"/>
+      <c r="C208" s="253" t="s">
+        <v>375</v>
       </c>
       <c r="D208" s="254" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E208" s="257" t="s">
-        <v>380</v>
-      </c>
-      <c r="F208" s="261" t="s">
-        <v>96</v>
+        <v>13</v>
+      </c>
+      <c r="F208" s="261">
+        <v>1.0</v>
       </c>
       <c r="G208" s="261" t="s">
-        <v>97</v>
-      </c>
-      <c r="H208" s="260"/>
+        <v>104</v>
+      </c>
+      <c r="H208" s="107"/>
       <c r="I208" s="257"/>
-      <c r="J208" s="260"/>
+      <c r="J208" s="107"/>
       <c r="K208" s="15"/>
       <c r="L208" s="15"/>
       <c r="M208" s="15"/>
@@ -17176,24 +17203,24 @@
     <row r="209">
       <c r="A209" s="15"/>
       <c r="B209" s="103"/>
-      <c r="C209" s="261" t="s">
-        <v>381</v>
+      <c r="C209" s="253" t="s">
+        <v>377</v>
       </c>
       <c r="D209" s="254" t="s">
-        <v>382</v>
-      </c>
-      <c r="E209" s="263" t="s">
-        <v>87</v>
+        <v>378</v>
+      </c>
+      <c r="E209" s="257" t="s">
+        <v>13</v>
       </c>
       <c r="F209" s="261" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G209" s="261" t="s">
-        <v>97</v>
-      </c>
-      <c r="H209" s="260"/>
-      <c r="I209" s="263"/>
-      <c r="J209" s="260"/>
+        <v>104</v>
+      </c>
+      <c r="H209" s="107"/>
+      <c r="I209" s="257"/>
+      <c r="J209" s="107"/>
       <c r="K209" s="15"/>
       <c r="L209" s="15"/>
       <c r="M209" s="15"/>
@@ -17224,27 +17251,23 @@
     <row r="210">
       <c r="A210" s="15"/>
       <c r="B210" s="103"/>
-      <c r="C210" s="261" t="s">
-        <v>365</v>
+      <c r="C210" s="253" t="s">
+        <v>379</v>
       </c>
       <c r="D210" s="254" t="s">
-        <v>383</v>
-      </c>
-      <c r="E210" s="263" t="s">
-        <v>38</v>
-      </c>
-      <c r="F210" s="261" t="s">
-        <v>101</v>
-      </c>
-      <c r="G210" s="276" t="s">
-        <v>102</v>
-      </c>
-      <c r="H210" s="107" t="s">
-        <v>384</v>
-      </c>
-      <c r="I210" s="277" t="s">
-        <v>385</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="E210" s="257" t="s">
+        <v>13</v>
+      </c>
+      <c r="F210" s="261">
+        <v>1.0</v>
+      </c>
+      <c r="G210" s="261" t="s">
+        <v>99</v>
+      </c>
+      <c r="H210" s="107"/>
+      <c r="I210" s="257"/>
       <c r="J210" s="107"/>
       <c r="K210" s="15"/>
       <c r="L210" s="15"/>
@@ -17275,25 +17298,25 @@
     </row>
     <row r="211">
       <c r="A211" s="15"/>
-      <c r="B211" s="268"/>
-      <c r="C211" s="269" t="s">
-        <v>154</v>
-      </c>
-      <c r="D211" s="270" t="s">
-        <v>155</v>
-      </c>
-      <c r="E211" s="271" t="s">
-        <v>156</v>
-      </c>
-      <c r="F211" s="270" t="s">
-        <v>101</v>
-      </c>
-      <c r="G211" s="272" t="s">
-        <v>102</v>
-      </c>
-      <c r="H211" s="278"/>
-      <c r="I211" s="279"/>
-      <c r="J211" s="278"/>
+      <c r="B211" s="103"/>
+      <c r="C211" s="275" t="s">
+        <v>381</v>
+      </c>
+      <c r="D211" s="254" t="s">
+        <v>382</v>
+      </c>
+      <c r="E211" s="257" t="s">
+        <v>383</v>
+      </c>
+      <c r="F211" s="261" t="s">
+        <v>98</v>
+      </c>
+      <c r="G211" s="261" t="s">
+        <v>99</v>
+      </c>
+      <c r="H211" s="260"/>
+      <c r="I211" s="257"/>
+      <c r="J211" s="260"/>
       <c r="K211" s="15"/>
       <c r="L211" s="15"/>
       <c r="M211" s="15"/>
@@ -17323,15 +17346,25 @@
     </row>
     <row r="212">
       <c r="A212" s="15"/>
-      <c r="B212" s="280"/>
-      <c r="C212" s="172"/>
-      <c r="D212" s="173"/>
-      <c r="E212" s="15"/>
-      <c r="F212" s="172"/>
-      <c r="G212" s="172"/>
-      <c r="H212" s="15"/>
-      <c r="I212" s="15"/>
-      <c r="J212" s="15"/>
+      <c r="B212" s="103"/>
+      <c r="C212" s="261" t="s">
+        <v>384</v>
+      </c>
+      <c r="D212" s="254" t="s">
+        <v>385</v>
+      </c>
+      <c r="E212" s="263" t="s">
+        <v>89</v>
+      </c>
+      <c r="F212" s="261" t="s">
+        <v>103</v>
+      </c>
+      <c r="G212" s="261" t="s">
+        <v>99</v>
+      </c>
+      <c r="H212" s="260"/>
+      <c r="I212" s="263"/>
+      <c r="J212" s="260"/>
       <c r="K212" s="15"/>
       <c r="L212" s="15"/>
       <c r="M212" s="15"/>
@@ -17361,19 +17394,29 @@
     </row>
     <row r="213">
       <c r="A213" s="15"/>
-      <c r="B213" s="110" t="s">
-        <v>87</v>
-      </c>
-      <c r="C213" s="281"/>
-      <c r="D213" s="98" t="s">
-        <v>88</v>
-      </c>
-      <c r="E213" s="97"/>
-      <c r="F213" s="99"/>
-      <c r="G213" s="99"/>
-      <c r="H213" s="102"/>
-      <c r="I213" s="97"/>
-      <c r="J213" s="102"/>
+      <c r="B213" s="103"/>
+      <c r="C213" s="261" t="s">
+        <v>368</v>
+      </c>
+      <c r="D213" s="254" t="s">
+        <v>386</v>
+      </c>
+      <c r="E213" s="263" t="s">
+        <v>38</v>
+      </c>
+      <c r="F213" s="261" t="s">
+        <v>103</v>
+      </c>
+      <c r="G213" s="276" t="s">
+        <v>104</v>
+      </c>
+      <c r="H213" s="107" t="s">
+        <v>387</v>
+      </c>
+      <c r="I213" s="277" t="s">
+        <v>388</v>
+      </c>
+      <c r="J213" s="107"/>
       <c r="K213" s="15"/>
       <c r="L213" s="15"/>
       <c r="M213" s="15"/>
@@ -17403,27 +17446,25 @@
     </row>
     <row r="214">
       <c r="A214" s="15"/>
-      <c r="B214" s="252"/>
-      <c r="C214" s="253" t="s">
-        <v>94</v>
-      </c>
-      <c r="D214" s="254" t="s">
-        <v>386</v>
-      </c>
-      <c r="E214" s="255" t="s">
-        <v>52</v>
-      </c>
-      <c r="F214" s="253" t="s">
-        <v>96</v>
-      </c>
-      <c r="G214" s="256" t="s">
-        <v>97</v>
-      </c>
-      <c r="H214" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="I214" s="257"/>
-      <c r="J214" s="258"/>
+      <c r="B214" s="268"/>
+      <c r="C214" s="269" t="s">
+        <v>155</v>
+      </c>
+      <c r="D214" s="270" t="s">
+        <v>156</v>
+      </c>
+      <c r="E214" s="271" t="s">
+        <v>157</v>
+      </c>
+      <c r="F214" s="270" t="s">
+        <v>103</v>
+      </c>
+      <c r="G214" s="272" t="s">
+        <v>104</v>
+      </c>
+      <c r="H214" s="278"/>
+      <c r="I214" s="279"/>
+      <c r="J214" s="278"/>
       <c r="K214" s="15"/>
       <c r="L214" s="15"/>
       <c r="M214" s="15"/>
@@ -17453,25 +17494,15 @@
     </row>
     <row r="215">
       <c r="A215" s="15"/>
-      <c r="B215" s="274"/>
-      <c r="C215" s="253" t="s">
-        <v>99</v>
-      </c>
-      <c r="D215" s="259" t="s">
-        <v>387</v>
-      </c>
-      <c r="E215" s="255" t="s">
-        <v>54</v>
-      </c>
-      <c r="F215" s="253" t="s">
-        <v>101</v>
-      </c>
-      <c r="G215" s="256" t="s">
-        <v>102</v>
-      </c>
-      <c r="H215" s="107"/>
-      <c r="I215" s="257"/>
-      <c r="J215" s="107"/>
+      <c r="B215" s="280"/>
+      <c r="C215" s="172"/>
+      <c r="D215" s="173"/>
+      <c r="E215" s="15"/>
+      <c r="F215" s="172"/>
+      <c r="G215" s="172"/>
+      <c r="H215" s="15"/>
+      <c r="I215" s="15"/>
+      <c r="J215" s="15"/>
       <c r="K215" s="15"/>
       <c r="L215" s="15"/>
       <c r="M215" s="15"/>
@@ -17501,25 +17532,19 @@
     </row>
     <row r="216">
       <c r="A216" s="15"/>
-      <c r="B216" s="274"/>
-      <c r="C216" s="253" t="s">
-        <v>103</v>
-      </c>
-      <c r="D216" s="259" t="s">
-        <v>388</v>
-      </c>
-      <c r="E216" s="255" t="s">
-        <v>56</v>
-      </c>
-      <c r="F216" s="253" t="s">
-        <v>101</v>
-      </c>
-      <c r="G216" s="256" t="s">
-        <v>102</v>
-      </c>
-      <c r="H216" s="107"/>
-      <c r="I216" s="257"/>
-      <c r="J216" s="107"/>
+      <c r="B216" s="110" t="s">
+        <v>89</v>
+      </c>
+      <c r="C216" s="281"/>
+      <c r="D216" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="E216" s="97"/>
+      <c r="F216" s="99"/>
+      <c r="G216" s="99"/>
+      <c r="H216" s="102"/>
+      <c r="I216" s="97"/>
+      <c r="J216" s="102"/>
       <c r="K216" s="15"/>
       <c r="L216" s="15"/>
       <c r="M216" s="15"/>
@@ -17549,25 +17574,27 @@
     </row>
     <row r="217">
       <c r="A217" s="15"/>
-      <c r="B217" s="112"/>
-      <c r="C217" s="282" t="s">
-        <v>34</v>
-      </c>
-      <c r="D217" s="105" t="s">
-        <v>89</v>
-      </c>
-      <c r="E217" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F217" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="G217" s="106" t="s">
-        <v>14</v>
-      </c>
-      <c r="H217" s="114"/>
-      <c r="I217" s="104"/>
-      <c r="J217" s="114"/>
+      <c r="B217" s="252"/>
+      <c r="C217" s="253" t="s">
+        <v>96</v>
+      </c>
+      <c r="D217" s="254" t="s">
+        <v>389</v>
+      </c>
+      <c r="E217" s="255" t="s">
+        <v>52</v>
+      </c>
+      <c r="F217" s="253" t="s">
+        <v>98</v>
+      </c>
+      <c r="G217" s="256" t="s">
+        <v>99</v>
+      </c>
+      <c r="H217" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="I217" s="257"/>
+      <c r="J217" s="258"/>
       <c r="K217" s="15"/>
       <c r="L217" s="15"/>
       <c r="M217" s="15"/>
@@ -17597,25 +17624,25 @@
     </row>
     <row r="218">
       <c r="A218" s="15"/>
-      <c r="B218" s="283"/>
-      <c r="C218" s="275" t="s">
-        <v>389</v>
-      </c>
-      <c r="D218" s="254" t="s">
+      <c r="B218" s="274"/>
+      <c r="C218" s="253" t="s">
+        <v>101</v>
+      </c>
+      <c r="D218" s="259" t="s">
         <v>390</v>
       </c>
-      <c r="E218" s="257" t="s">
-        <v>13</v>
-      </c>
-      <c r="F218" s="261" t="s">
-        <v>96</v>
-      </c>
-      <c r="G218" s="261" t="s">
-        <v>102</v>
-      </c>
-      <c r="H218" s="260"/>
+      <c r="E218" s="255" t="s">
+        <v>54</v>
+      </c>
+      <c r="F218" s="253" t="s">
+        <v>103</v>
+      </c>
+      <c r="G218" s="256" t="s">
+        <v>104</v>
+      </c>
+      <c r="H218" s="107"/>
       <c r="I218" s="257"/>
-      <c r="J218" s="260"/>
+      <c r="J218" s="107"/>
       <c r="K218" s="15"/>
       <c r="L218" s="15"/>
       <c r="M218" s="15"/>
@@ -17645,25 +17672,25 @@
     </row>
     <row r="219">
       <c r="A219" s="15"/>
-      <c r="B219" s="283"/>
+      <c r="B219" s="274"/>
       <c r="C219" s="253" t="s">
+        <v>105</v>
+      </c>
+      <c r="D219" s="259" t="s">
         <v>391</v>
       </c>
-      <c r="D219" s="254" t="s">
-        <v>392</v>
-      </c>
-      <c r="E219" s="263" t="s">
-        <v>112</v>
-      </c>
-      <c r="F219" s="261" t="s">
-        <v>96</v>
-      </c>
-      <c r="G219" s="261" t="s">
-        <v>102</v>
-      </c>
-      <c r="H219" s="260"/>
+      <c r="E219" s="255" t="s">
+        <v>56</v>
+      </c>
+      <c r="F219" s="253" t="s">
+        <v>103</v>
+      </c>
+      <c r="G219" s="256" t="s">
+        <v>104</v>
+      </c>
+      <c r="H219" s="107"/>
       <c r="I219" s="257"/>
-      <c r="J219" s="260"/>
+      <c r="J219" s="107"/>
       <c r="K219" s="15"/>
       <c r="L219" s="15"/>
       <c r="M219" s="15"/>
@@ -17693,29 +17720,25 @@
     </row>
     <row r="220">
       <c r="A220" s="15"/>
-      <c r="B220" s="103"/>
-      <c r="C220" s="253" t="s">
-        <v>365</v>
-      </c>
-      <c r="D220" s="267" t="s">
-        <v>393</v>
-      </c>
-      <c r="E220" s="263" t="s">
-        <v>38</v>
-      </c>
-      <c r="F220" s="261" t="s">
-        <v>101</v>
-      </c>
-      <c r="G220" s="276" t="s">
-        <v>102</v>
-      </c>
-      <c r="H220" s="107" t="s">
-        <v>394</v>
-      </c>
-      <c r="I220" s="277" t="s">
-        <v>385</v>
-      </c>
-      <c r="J220" s="260"/>
+      <c r="B220" s="112"/>
+      <c r="C220" s="282" t="s">
+        <v>34</v>
+      </c>
+      <c r="D220" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="E220" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F220" s="106">
+        <v>1.0</v>
+      </c>
+      <c r="G220" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="H220" s="114"/>
+      <c r="I220" s="104"/>
+      <c r="J220" s="114"/>
       <c r="K220" s="15"/>
       <c r="L220" s="15"/>
       <c r="M220" s="15"/>
@@ -17745,25 +17768,25 @@
     </row>
     <row r="221">
       <c r="A221" s="15"/>
-      <c r="B221" s="268"/>
-      <c r="C221" s="269" t="s">
-        <v>154</v>
-      </c>
-      <c r="D221" s="270" t="s">
-        <v>155</v>
-      </c>
-      <c r="E221" s="271" t="s">
-        <v>156</v>
-      </c>
-      <c r="F221" s="270" t="s">
-        <v>101</v>
-      </c>
-      <c r="G221" s="272" t="s">
-        <v>102</v>
-      </c>
-      <c r="H221" s="278"/>
-      <c r="I221" s="279"/>
-      <c r="J221" s="273"/>
+      <c r="B221" s="283"/>
+      <c r="C221" s="275" t="s">
+        <v>392</v>
+      </c>
+      <c r="D221" s="254" t="s">
+        <v>393</v>
+      </c>
+      <c r="E221" s="257" t="s">
+        <v>13</v>
+      </c>
+      <c r="F221" s="261" t="s">
+        <v>98</v>
+      </c>
+      <c r="G221" s="261" t="s">
+        <v>104</v>
+      </c>
+      <c r="H221" s="260"/>
+      <c r="I221" s="257"/>
+      <c r="J221" s="260"/>
       <c r="K221" s="15"/>
       <c r="L221" s="15"/>
       <c r="M221" s="15"/>
@@ -17790,6 +17813,154 @@
       <c r="AH221" s="15"/>
       <c r="AI221" s="15"/>
       <c r="AJ221" s="15"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="15"/>
+      <c r="B222" s="283"/>
+      <c r="C222" s="253" t="s">
+        <v>394</v>
+      </c>
+      <c r="D222" s="254" t="s">
+        <v>395</v>
+      </c>
+      <c r="E222" s="263" t="s">
+        <v>81</v>
+      </c>
+      <c r="F222" s="261" t="s">
+        <v>98</v>
+      </c>
+      <c r="G222" s="261" t="s">
+        <v>104</v>
+      </c>
+      <c r="H222" s="260"/>
+      <c r="I222" s="257"/>
+      <c r="J222" s="260"/>
+      <c r="K222" s="15"/>
+      <c r="L222" s="15"/>
+      <c r="M222" s="15"/>
+      <c r="N222" s="15"/>
+      <c r="O222" s="15"/>
+      <c r="P222" s="15"/>
+      <c r="Q222" s="15"/>
+      <c r="R222" s="15"/>
+      <c r="S222" s="15"/>
+      <c r="T222" s="15"/>
+      <c r="U222" s="15"/>
+      <c r="V222" s="15"/>
+      <c r="W222" s="15"/>
+      <c r="X222" s="15"/>
+      <c r="Y222" s="15"/>
+      <c r="Z222" s="15"/>
+      <c r="AA222" s="15"/>
+      <c r="AB222" s="15"/>
+      <c r="AC222" s="15"/>
+      <c r="AD222" s="15"/>
+      <c r="AE222" s="15"/>
+      <c r="AF222" s="15"/>
+      <c r="AG222" s="15"/>
+      <c r="AH222" s="15"/>
+      <c r="AI222" s="15"/>
+      <c r="AJ222" s="15"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="15"/>
+      <c r="B223" s="103"/>
+      <c r="C223" s="253" t="s">
+        <v>368</v>
+      </c>
+      <c r="D223" s="267" t="s">
+        <v>396</v>
+      </c>
+      <c r="E223" s="263" t="s">
+        <v>38</v>
+      </c>
+      <c r="F223" s="261" t="s">
+        <v>103</v>
+      </c>
+      <c r="G223" s="276" t="s">
+        <v>104</v>
+      </c>
+      <c r="H223" s="107" t="s">
+        <v>397</v>
+      </c>
+      <c r="I223" s="277" t="s">
+        <v>388</v>
+      </c>
+      <c r="J223" s="260"/>
+      <c r="K223" s="15"/>
+      <c r="L223" s="15"/>
+      <c r="M223" s="15"/>
+      <c r="N223" s="15"/>
+      <c r="O223" s="15"/>
+      <c r="P223" s="15"/>
+      <c r="Q223" s="15"/>
+      <c r="R223" s="15"/>
+      <c r="S223" s="15"/>
+      <c r="T223" s="15"/>
+      <c r="U223" s="15"/>
+      <c r="V223" s="15"/>
+      <c r="W223" s="15"/>
+      <c r="X223" s="15"/>
+      <c r="Y223" s="15"/>
+      <c r="Z223" s="15"/>
+      <c r="AA223" s="15"/>
+      <c r="AB223" s="15"/>
+      <c r="AC223" s="15"/>
+      <c r="AD223" s="15"/>
+      <c r="AE223" s="15"/>
+      <c r="AF223" s="15"/>
+      <c r="AG223" s="15"/>
+      <c r="AH223" s="15"/>
+      <c r="AI223" s="15"/>
+      <c r="AJ223" s="15"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="15"/>
+      <c r="B224" s="268"/>
+      <c r="C224" s="269" t="s">
+        <v>155</v>
+      </c>
+      <c r="D224" s="270" t="s">
+        <v>156</v>
+      </c>
+      <c r="E224" s="271" t="s">
+        <v>157</v>
+      </c>
+      <c r="F224" s="270" t="s">
+        <v>103</v>
+      </c>
+      <c r="G224" s="272" t="s">
+        <v>104</v>
+      </c>
+      <c r="H224" s="278"/>
+      <c r="I224" s="279"/>
+      <c r="J224" s="273"/>
+      <c r="K224" s="15"/>
+      <c r="L224" s="15"/>
+      <c r="M224" s="15"/>
+      <c r="N224" s="15"/>
+      <c r="O224" s="15"/>
+      <c r="P224" s="15"/>
+      <c r="Q224" s="15"/>
+      <c r="R224" s="15"/>
+      <c r="S224" s="15"/>
+      <c r="T224" s="15"/>
+      <c r="U224" s="15"/>
+      <c r="V224" s="15"/>
+      <c r="W224" s="15"/>
+      <c r="X224" s="15"/>
+      <c r="Y224" s="15"/>
+      <c r="Z224" s="15"/>
+      <c r="AA224" s="15"/>
+      <c r="AB224" s="15"/>
+      <c r="AC224" s="15"/>
+      <c r="AD224" s="15"/>
+      <c r="AE224" s="15"/>
+      <c r="AF224" s="15"/>
+      <c r="AG224" s="15"/>
+      <c r="AH224" s="15"/>
+      <c r="AI224" s="15"/>
+      <c r="AJ224" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -17878,7 +18049,7 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C5" s="173"/>
       <c r="D5" s="15"/>
@@ -17910,17 +18081,17 @@
     </row>
     <row r="8">
       <c r="A8" s="59" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B8" s="73"/>
       <c r="C8" s="75" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D8" s="73"/>
       <c r="E8" s="76"/>
       <c r="F8" s="68"/>
       <c r="G8" s="285" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H8" s="73"/>
       <c r="I8" s="69"/>
@@ -17928,22 +18099,22 @@
     <row r="9">
       <c r="A9" s="199"/>
       <c r="B9" s="201" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D9" s="227" t="s">
         <v>52</v>
       </c>
       <c r="E9" s="202" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F9" s="201" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G9" s="92" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H9" s="94"/>
       <c r="I9" s="286"/>
@@ -17951,19 +18122,19 @@
     <row r="10">
       <c r="A10" s="90"/>
       <c r="B10" s="201" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C10" s="229" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D10" s="227" t="s">
         <v>54</v>
       </c>
       <c r="E10" s="202" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F10" s="201" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G10" s="92"/>
       <c r="H10" s="70"/>
@@ -17972,19 +18143,19 @@
     <row r="11">
       <c r="A11" s="90"/>
       <c r="B11" s="201" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C11" s="229" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D11" s="227" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="202" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F11" s="201" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G11" s="92"/>
       <c r="H11" s="70"/>
@@ -17996,7 +18167,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D12" s="79" t="s">
         <v>13</v>
@@ -18014,19 +18185,19 @@
     <row r="13">
       <c r="A13" s="287"/>
       <c r="B13" s="216" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="236" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D13" s="237" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E13" s="236" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F13" s="238" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G13" s="288"/>
       <c r="H13" s="287"/>
@@ -18045,44 +18216,44 @@
     </row>
     <row r="15">
       <c r="A15" s="289" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B15" s="290" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C15" s="290" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D15" s="291"/>
       <c r="E15" s="292"/>
       <c r="F15" s="293"/>
       <c r="G15" s="294" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H15" s="295" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="I15" s="296"/>
     </row>
     <row r="16">
       <c r="A16" s="297"/>
       <c r="B16" s="298" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C16" s="299" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D16" s="300" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="301" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F16" s="298" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G16" s="302" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H16" s="303"/>
       <c r="I16" s="304"/>
@@ -18090,19 +18261,19 @@
     <row r="17">
       <c r="A17" s="305"/>
       <c r="B17" s="298" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C17" s="306" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D17" s="300" t="s">
         <v>54</v>
       </c>
       <c r="E17" s="301" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F17" s="298" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G17" s="304"/>
       <c r="H17" s="303"/>
@@ -18111,19 +18282,19 @@
     <row r="18">
       <c r="A18" s="305"/>
       <c r="B18" s="298" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C18" s="306" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D18" s="300" t="s">
         <v>56</v>
       </c>
       <c r="E18" s="301" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F18" s="298" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G18" s="304"/>
       <c r="H18" s="303"/>
@@ -18135,7 +18306,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="308" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D19" s="307" t="s">
         <v>13</v>
@@ -18153,19 +18324,19 @@
     <row r="20">
       <c r="A20" s="311"/>
       <c r="B20" s="298" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C20" s="306" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D20" s="298" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="298" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F20" s="298" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G20" s="304"/>
       <c r="H20" s="312"/>
@@ -18174,19 +18345,19 @@
     <row r="21">
       <c r="A21" s="311"/>
       <c r="B21" s="303" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C21" s="299" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D21" s="312" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E21" s="313" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F21" s="313" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G21" s="304"/>
       <c r="H21" s="312"/>
@@ -18195,19 +18366,19 @@
     <row r="22">
       <c r="A22" s="314"/>
       <c r="B22" s="303" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C22" s="299" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D22" s="312" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E22" s="313" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F22" s="313" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G22" s="304"/>
       <c r="H22" s="312"/>
@@ -18216,19 +18387,19 @@
     <row r="23">
       <c r="A23" s="315"/>
       <c r="B23" s="303" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C23" s="299" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D23" s="316" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E23" s="313" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F23" s="313" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G23" s="304"/>
       <c r="H23" s="312"/>
@@ -18237,19 +18408,19 @@
     <row r="24">
       <c r="A24" s="315"/>
       <c r="B24" s="303" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C24" s="299" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D24" s="303" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="313" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F24" s="313" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G24" s="304"/>
       <c r="H24" s="312"/>
@@ -18258,19 +18429,19 @@
     <row r="25">
       <c r="A25" s="315"/>
       <c r="B25" s="303" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C25" s="299" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D25" s="312" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="E25" s="313" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F25" s="313" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G25" s="304"/>
       <c r="H25" s="312"/>
@@ -18279,22 +18450,22 @@
     <row r="26">
       <c r="A26" s="315"/>
       <c r="B26" s="303" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C26" s="299" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D26" s="312" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="301" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F26" s="313" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G26" s="317" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H26" s="318"/>
       <c r="I26" s="304"/>
@@ -18302,19 +18473,19 @@
     <row r="27">
       <c r="A27" s="319"/>
       <c r="B27" s="303" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C27" s="320" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D27" s="312" t="s">
         <v>38</v>
       </c>
       <c r="E27" s="301" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F27" s="313" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G27" s="303"/>
       <c r="H27" s="321"/>
@@ -18323,19 +18494,19 @@
     <row r="28">
       <c r="A28" s="319"/>
       <c r="B28" s="303" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C28" s="299" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D28" s="312" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E28" s="301" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F28" s="313" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G28" s="303"/>
       <c r="H28" s="318"/>
@@ -18344,19 +18515,19 @@
     <row r="29">
       <c r="A29" s="319"/>
       <c r="B29" s="303" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C29" s="299" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D29" s="312" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E29" s="301" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F29" s="313" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G29" s="303"/>
       <c r="H29" s="318"/>
@@ -18365,19 +18536,19 @@
     <row r="30">
       <c r="A30" s="322"/>
       <c r="B30" s="323" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C30" s="324" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D30" s="325" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E30" s="324" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F30" s="326" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G30" s="323"/>
       <c r="H30" s="327"/>
@@ -18396,19 +18567,19 @@
     </row>
     <row r="32">
       <c r="A32" s="289" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B32" s="329" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C32" s="290" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D32" s="291"/>
       <c r="E32" s="292"/>
       <c r="F32" s="293"/>
       <c r="G32" s="294" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="H32" s="291"/>
       <c r="I32" s="294"/>
@@ -18416,71 +18587,71 @@
     <row r="33">
       <c r="A33" s="297"/>
       <c r="B33" s="298" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C33" s="299" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D33" s="300" t="s">
         <v>52</v>
       </c>
       <c r="E33" s="301" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F33" s="298" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G33" s="317" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H33" s="303" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="I33" s="330"/>
     </row>
     <row r="34">
       <c r="A34" s="305"/>
       <c r="B34" s="298" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C34" s="306" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D34" s="300" t="s">
         <v>54</v>
       </c>
       <c r="E34" s="301" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F34" s="298" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G34" s="317"/>
       <c r="H34" s="303" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="I34" s="317"/>
     </row>
     <row r="35">
       <c r="A35" s="305"/>
       <c r="B35" s="298" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C35" s="306" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D35" s="300" t="s">
         <v>56</v>
       </c>
       <c r="E35" s="301" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F35" s="298" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G35" s="317"/>
       <c r="H35" s="303" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="I35" s="317"/>
     </row>
@@ -18490,7 +18661,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="308" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D36" s="307" t="s">
         <v>13</v>
@@ -18503,26 +18674,26 @@
       </c>
       <c r="G36" s="331"/>
       <c r="H36" s="307" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="I36" s="331"/>
     </row>
     <row r="37">
       <c r="A37" s="314"/>
       <c r="B37" s="298" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C37" s="306" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D37" s="298" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="298" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F37" s="298" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G37" s="304"/>
       <c r="H37" s="332"/>
@@ -18531,65 +18702,65 @@
     <row r="38">
       <c r="A38" s="314"/>
       <c r="B38" s="303" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C38" s="299" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D38" s="312" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E38" s="313" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F38" s="313" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G38" s="304"/>
       <c r="H38" s="332" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="I38" s="304"/>
     </row>
     <row r="39">
       <c r="A39" s="314"/>
       <c r="B39" s="303" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C39" s="299" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D39" s="312" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E39" s="313" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F39" s="313" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G39" s="304"/>
       <c r="H39" s="332" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="I39" s="304"/>
     </row>
     <row r="40">
       <c r="A40" s="314"/>
       <c r="B40" s="303" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C40" s="333" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D40" s="316" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E40" s="313" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F40" s="313" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G40" s="304"/>
       <c r="H40" s="332"/>
@@ -18598,157 +18769,157 @@
     <row r="41">
       <c r="A41" s="314"/>
       <c r="B41" s="303" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C41" s="299" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D41" s="303" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="313" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F41" s="313" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G41" s="304"/>
       <c r="H41" s="332" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="I41" s="304"/>
     </row>
     <row r="42">
       <c r="A42" s="314"/>
       <c r="B42" s="303" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C42" s="299" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D42" s="312" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="E42" s="313" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F42" s="313" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G42" s="304"/>
       <c r="H42" s="332" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="I42" s="304"/>
     </row>
     <row r="43">
       <c r="A43" s="314"/>
       <c r="B43" s="303" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C43" s="299" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D43" s="312" t="s">
         <v>24</v>
       </c>
       <c r="E43" s="334" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F43" s="313" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G43" s="304"/>
       <c r="H43" s="332" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="I43" s="304"/>
     </row>
     <row r="44">
       <c r="A44" s="335"/>
       <c r="B44" s="332" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C44" s="336" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D44" s="312" t="s">
         <v>38</v>
       </c>
       <c r="E44" s="334" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F44" s="334" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G44" s="304"/>
       <c r="H44" s="332" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="I44" s="304"/>
     </row>
     <row r="45">
       <c r="A45" s="337"/>
       <c r="B45" s="299" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C45" s="299" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D45" s="312" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E45" s="301" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F45" s="313" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G45" s="338"/>
       <c r="H45" s="332" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="I45" s="304"/>
     </row>
     <row r="46">
       <c r="A46" s="337"/>
       <c r="B46" s="299" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C46" s="299" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D46" s="312" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E46" s="301" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F46" s="313" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G46" s="339"/>
       <c r="H46" s="319" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="I46" s="310"/>
     </row>
     <row r="47">
       <c r="A47" s="314"/>
       <c r="B47" s="340" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C47" s="340" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D47" s="341" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E47" s="340" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F47" s="340" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G47" s="317"/>
       <c r="H47" s="338"/>
@@ -18757,13 +18928,13 @@
     <row r="48">
       <c r="A48" s="314"/>
       <c r="B48" s="342" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C48" s="308" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D48" s="312" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E48" s="309" t="s">
         <v>19</v>
@@ -18781,19 +18952,19 @@
         <v>16</v>
       </c>
       <c r="C49" s="299" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D49" s="312" t="s">
         <v>38</v>
       </c>
       <c r="E49" s="313" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F49" s="313" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G49" s="317" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H49" s="307"/>
       <c r="I49" s="310"/>
@@ -18801,22 +18972,22 @@
     <row r="50">
       <c r="A50" s="305"/>
       <c r="B50" s="303" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C50" s="299" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D50" s="312" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E50" s="313" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F50" s="313" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G50" s="343" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="H50" s="312"/>
       <c r="I50" s="304"/>
@@ -18824,19 +18995,19 @@
     <row r="51">
       <c r="A51" s="305"/>
       <c r="B51" s="303" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C51" s="299" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D51" s="312" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E51" s="313" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F51" s="313" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G51" s="304"/>
       <c r="H51" s="312"/>
@@ -18845,19 +19016,19 @@
     <row r="52">
       <c r="A52" s="305"/>
       <c r="B52" s="303" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C52" s="299" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D52" s="312" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E52" s="313" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F52" s="313" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G52" s="304"/>
       <c r="H52" s="338"/>
@@ -18866,22 +19037,22 @@
     <row r="53">
       <c r="A53" s="305"/>
       <c r="B53" s="303" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C53" s="299" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D53" s="312" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E53" s="313" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F53" s="313" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G53" s="317" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="H53" s="338"/>
       <c r="I53" s="304"/>
@@ -18889,19 +19060,19 @@
     <row r="54">
       <c r="A54" s="344"/>
       <c r="B54" s="323" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C54" s="324" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D54" s="325" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E54" s="324" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F54" s="326" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G54" s="323"/>
       <c r="H54" s="328"/>
@@ -18920,19 +19091,19 @@
     </row>
     <row r="56">
       <c r="A56" s="289" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B56" s="329" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C56" s="290" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D56" s="291"/>
       <c r="E56" s="292"/>
       <c r="F56" s="292"/>
       <c r="G56" s="350" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H56" s="291"/>
       <c r="I56" s="294"/>
@@ -18940,10 +19111,10 @@
     <row r="57">
       <c r="A57" s="297"/>
       <c r="B57" s="298" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C57" s="299" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D57" s="300" t="s">
         <v>52</v>
@@ -18952,10 +19123,10 @@
         <v>19</v>
       </c>
       <c r="F57" s="298" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G57" s="317" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H57" s="303"/>
       <c r="I57" s="330"/>
@@ -18963,19 +19134,19 @@
     <row r="58">
       <c r="A58" s="305"/>
       <c r="B58" s="298" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C58" s="306" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D58" s="300" t="s">
         <v>54</v>
       </c>
       <c r="E58" s="301" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F58" s="298" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G58" s="317"/>
       <c r="H58" s="312"/>
@@ -18984,19 +19155,19 @@
     <row r="59">
       <c r="A59" s="305"/>
       <c r="B59" s="298" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C59" s="306" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D59" s="300" t="s">
         <v>56</v>
       </c>
       <c r="E59" s="301" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F59" s="298" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G59" s="317"/>
       <c r="H59" s="312"/>
@@ -19008,7 +19179,7 @@
         <v>34</v>
       </c>
       <c r="C60" s="308" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D60" s="307" t="s">
         <v>13</v>
@@ -19026,19 +19197,19 @@
     <row r="61">
       <c r="A61" s="351"/>
       <c r="B61" s="298" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C61" s="306" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D61" s="298" t="s">
         <v>13</v>
       </c>
       <c r="E61" s="298" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F61" s="298" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G61" s="304"/>
       <c r="H61" s="312"/>
@@ -19047,19 +19218,19 @@
     <row r="62">
       <c r="A62" s="351"/>
       <c r="B62" s="303" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C62" s="299" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D62" s="312" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E62" s="313" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F62" s="313" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G62" s="304"/>
       <c r="H62" s="312"/>
@@ -19068,19 +19239,19 @@
     <row r="63">
       <c r="A63" s="351"/>
       <c r="B63" s="303" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C63" s="299" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D63" s="312" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E63" s="313" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F63" s="313" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G63" s="304"/>
       <c r="H63" s="312"/>
@@ -19089,19 +19260,19 @@
     <row r="64">
       <c r="A64" s="305"/>
       <c r="B64" s="303" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C64" s="333" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D64" s="316" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E64" s="313" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F64" s="313" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G64" s="304"/>
       <c r="H64" s="303"/>
@@ -19110,19 +19281,19 @@
     <row r="65">
       <c r="A65" s="305"/>
       <c r="B65" s="303" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C65" s="299" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D65" s="303" t="s">
         <v>13</v>
       </c>
       <c r="E65" s="313" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F65" s="313" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G65" s="304"/>
       <c r="H65" s="303"/>
@@ -19131,19 +19302,19 @@
     <row r="66">
       <c r="A66" s="305"/>
       <c r="B66" s="303" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C66" s="299" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D66" s="312" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="E66" s="313" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F66" s="313" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G66" s="304"/>
       <c r="H66" s="303"/>
@@ -19152,19 +19323,19 @@
     <row r="67">
       <c r="A67" s="305"/>
       <c r="B67" s="303" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C67" s="299" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D67" s="312" t="s">
         <v>24</v>
       </c>
       <c r="E67" s="334" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F67" s="313" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G67" s="304"/>
       <c r="H67" s="303"/>
@@ -19173,19 +19344,19 @@
     <row r="68">
       <c r="A68" s="352"/>
       <c r="B68" s="332" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C68" s="336" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D68" s="312" t="s">
         <v>38</v>
       </c>
       <c r="E68" s="334" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F68" s="334" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G68" s="304"/>
       <c r="H68" s="332"/>
@@ -19194,13 +19365,13 @@
     <row r="69">
       <c r="A69" s="352"/>
       <c r="B69" s="307" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C69" s="308" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D69" s="312" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E69" s="309" t="s">
         <v>19</v>
@@ -19210,26 +19381,26 @@
       </c>
       <c r="G69" s="310"/>
       <c r="H69" s="303" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="I69" s="304"/>
     </row>
     <row r="70">
       <c r="A70" s="314"/>
       <c r="B70" s="303" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C70" s="299" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D70" s="312" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E70" s="313" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F70" s="313" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G70" s="304"/>
       <c r="H70" s="303"/>
@@ -19238,22 +19409,22 @@
     <row r="71">
       <c r="A71" s="305"/>
       <c r="B71" s="303" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C71" s="299" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D71" s="312" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="E71" s="313" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F71" s="313" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G71" s="317" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="H71" s="312"/>
       <c r="I71" s="304"/>
@@ -19261,19 +19432,19 @@
     <row r="72">
       <c r="A72" s="305"/>
       <c r="B72" s="303" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C72" s="299" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D72" s="303" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E72" s="313" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F72" s="313" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G72" s="304"/>
       <c r="H72" s="303"/>
@@ -19282,19 +19453,19 @@
     <row r="73">
       <c r="A73" s="305"/>
       <c r="B73" s="303" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C73" s="299" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D73" s="303" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E73" s="313" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F73" s="313" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G73" s="304"/>
       <c r="H73" s="303"/>
@@ -19303,19 +19474,19 @@
     <row r="74">
       <c r="A74" s="314"/>
       <c r="B74" s="303" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C74" s="299" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D74" s="303" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E74" s="313" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F74" s="313" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G74" s="304"/>
       <c r="H74" s="303"/>
@@ -19324,19 +19495,19 @@
     <row r="75">
       <c r="A75" s="353"/>
       <c r="B75" s="323" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C75" s="324" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D75" s="325" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E75" s="324" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F75" s="326" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G75" s="328"/>
       <c r="H75" s="323"/>
@@ -19355,13 +19526,13 @@
     </row>
     <row r="77">
       <c r="A77" s="289" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B77" s="329" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C77" s="354" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D77" s="355"/>
       <c r="E77" s="292"/>
@@ -19373,10 +19544,10 @@
     <row r="78">
       <c r="A78" s="297"/>
       <c r="B78" s="298" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C78" s="299" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D78" s="300" t="s">
         <v>52</v>
@@ -19385,10 +19556,10 @@
         <v>19</v>
       </c>
       <c r="F78" s="298" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G78" s="317" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H78" s="303"/>
       <c r="I78" s="330"/>
@@ -19396,19 +19567,19 @@
     <row r="79">
       <c r="A79" s="315"/>
       <c r="B79" s="298" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C79" s="306" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D79" s="300" t="s">
         <v>54</v>
       </c>
       <c r="E79" s="301" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F79" s="298" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G79" s="304"/>
       <c r="H79" s="338"/>
@@ -19417,19 +19588,19 @@
     <row r="80">
       <c r="A80" s="315"/>
       <c r="B80" s="298" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C80" s="306" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D80" s="300" t="s">
         <v>56</v>
       </c>
       <c r="E80" s="301" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F80" s="298" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G80" s="304"/>
       <c r="H80" s="338"/>
@@ -19441,7 +19612,7 @@
         <v>34</v>
       </c>
       <c r="C81" s="308" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D81" s="307" t="s">
         <v>13</v>
@@ -19459,19 +19630,19 @@
     <row r="82">
       <c r="A82" s="311"/>
       <c r="B82" s="298" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C82" s="306" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D82" s="298" t="s">
         <v>13</v>
       </c>
       <c r="E82" s="298" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F82" s="298" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G82" s="304"/>
       <c r="H82" s="312"/>
@@ -19480,19 +19651,19 @@
     <row r="83">
       <c r="A83" s="311"/>
       <c r="B83" s="303" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C83" s="299" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D83" s="312" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E83" s="313" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F83" s="313" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G83" s="304"/>
       <c r="H83" s="312"/>
@@ -19501,19 +19672,19 @@
     <row r="84">
       <c r="A84" s="311"/>
       <c r="B84" s="303" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C84" s="299" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D84" s="312" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E84" s="313" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F84" s="313" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G84" s="304"/>
       <c r="H84" s="312"/>
@@ -19522,19 +19693,19 @@
     <row r="85">
       <c r="A85" s="315"/>
       <c r="B85" s="303" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C85" s="333" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D85" s="316" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E85" s="313" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F85" s="313" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G85" s="304"/>
       <c r="H85" s="312"/>
@@ -19543,19 +19714,19 @@
     <row r="86">
       <c r="A86" s="315"/>
       <c r="B86" s="303" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C86" s="299" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D86" s="303" t="s">
         <v>13</v>
       </c>
       <c r="E86" s="313" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F86" s="313" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G86" s="304"/>
       <c r="H86" s="312"/>
@@ -19564,19 +19735,19 @@
     <row r="87">
       <c r="A87" s="315"/>
       <c r="B87" s="303" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C87" s="299" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D87" s="312" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="E87" s="313" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F87" s="313" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G87" s="304"/>
       <c r="H87" s="312"/>
@@ -19585,19 +19756,19 @@
     <row r="88">
       <c r="A88" s="315"/>
       <c r="B88" s="303" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C88" s="299" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D88" s="312" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E88" s="334" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F88" s="313" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G88" s="304"/>
       <c r="H88" s="312"/>
@@ -19606,19 +19777,19 @@
     <row r="89">
       <c r="A89" s="337"/>
       <c r="B89" s="332" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C89" s="336" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D89" s="312" t="s">
         <v>38</v>
       </c>
       <c r="E89" s="334" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F89" s="334" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G89" s="317"/>
       <c r="H89" s="312"/>
@@ -19627,19 +19798,19 @@
     <row r="90">
       <c r="A90" s="337"/>
       <c r="B90" s="303" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C90" s="299" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D90" s="312" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E90" s="334" t="s">
         <v>19</v>
       </c>
       <c r="F90" s="334" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G90" s="317"/>
       <c r="H90" s="312"/>
@@ -19648,10 +19819,10 @@
     <row r="91">
       <c r="A91" s="337"/>
       <c r="B91" s="303" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C91" s="299" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D91" s="312" t="s">
         <v>8</v>
@@ -19660,7 +19831,7 @@
         <v>19</v>
       </c>
       <c r="F91" s="334" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G91" s="317"/>
       <c r="H91" s="312"/>
@@ -19669,19 +19840,19 @@
     <row r="92">
       <c r="A92" s="357"/>
       <c r="B92" s="303" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C92" s="299" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D92" s="312" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E92" s="313" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F92" s="313" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G92" s="304"/>
       <c r="H92" s="312"/>
@@ -19690,10 +19861,10 @@
     <row r="93">
       <c r="A93" s="357"/>
       <c r="B93" s="303" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C93" s="299" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D93" s="312" t="s">
         <v>69</v>
@@ -19705,7 +19876,7 @@
         <v>14</v>
       </c>
       <c r="G93" s="317" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H93" s="312"/>
       <c r="I93" s="304"/>
@@ -19713,19 +19884,19 @@
     <row r="94">
       <c r="A94" s="357"/>
       <c r="B94" s="323" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C94" s="324" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D94" s="325" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E94" s="324" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F94" s="326" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G94" s="303"/>
       <c r="H94" s="312"/>
@@ -19744,19 +19915,19 @@
     </row>
     <row r="96">
       <c r="A96" s="318" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B96" s="307" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C96" s="364" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D96" s="338"/>
       <c r="E96" s="365"/>
       <c r="F96" s="365"/>
       <c r="G96" s="366" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="H96" s="338"/>
       <c r="I96" s="304"/>
@@ -19764,10 +19935,10 @@
     <row r="97">
       <c r="A97" s="297"/>
       <c r="B97" s="298" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C97" s="299" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D97" s="300" t="s">
         <v>52</v>
@@ -19776,10 +19947,10 @@
         <v>19</v>
       </c>
       <c r="F97" s="298" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G97" s="317" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H97" s="303"/>
       <c r="I97" s="330"/>
@@ -19787,19 +19958,19 @@
     <row r="98">
       <c r="A98" s="315"/>
       <c r="B98" s="298" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C98" s="306" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D98" s="300" t="s">
         <v>54</v>
       </c>
       <c r="E98" s="301" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F98" s="298" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G98" s="304"/>
       <c r="H98" s="338"/>
@@ -19808,19 +19979,19 @@
     <row r="99">
       <c r="A99" s="315"/>
       <c r="B99" s="298" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C99" s="306" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D99" s="300" t="s">
         <v>56</v>
       </c>
       <c r="E99" s="301" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F99" s="298" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G99" s="304"/>
       <c r="H99" s="338"/>
@@ -19832,7 +20003,7 @@
         <v>34</v>
       </c>
       <c r="C100" s="308" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D100" s="307" t="s">
         <v>13</v>
@@ -19850,19 +20021,19 @@
     <row r="101">
       <c r="A101" s="311"/>
       <c r="B101" s="298" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C101" s="306" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D101" s="298" t="s">
         <v>13</v>
       </c>
       <c r="E101" s="298" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F101" s="298" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G101" s="304"/>
       <c r="H101" s="312"/>
@@ -19871,19 +20042,19 @@
     <row r="102">
       <c r="A102" s="311"/>
       <c r="B102" s="303" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C102" s="299" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D102" s="312" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E102" s="313" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F102" s="313" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G102" s="304"/>
       <c r="H102" s="312"/>
@@ -19892,19 +20063,19 @@
     <row r="103">
       <c r="A103" s="311"/>
       <c r="B103" s="303" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C103" s="299" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D103" s="312" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E103" s="313" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F103" s="313" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G103" s="304"/>
       <c r="H103" s="312"/>
@@ -19913,19 +20084,19 @@
     <row r="104">
       <c r="A104" s="315"/>
       <c r="B104" s="303" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C104" s="299" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D104" s="316" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E104" s="313" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F104" s="313" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G104" s="304"/>
       <c r="H104" s="312"/>
@@ -19934,19 +20105,19 @@
     <row r="105">
       <c r="A105" s="315"/>
       <c r="B105" s="303" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C105" s="299" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D105" s="303" t="s">
         <v>13</v>
       </c>
       <c r="E105" s="313" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F105" s="313" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G105" s="304"/>
       <c r="H105" s="312"/>
@@ -19955,19 +20126,19 @@
     <row r="106">
       <c r="A106" s="315"/>
       <c r="B106" s="303" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C106" s="299" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D106" s="312" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="E106" s="313" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F106" s="313" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G106" s="304"/>
       <c r="H106" s="312"/>
@@ -19976,19 +20147,19 @@
     <row r="107">
       <c r="A107" s="315"/>
       <c r="B107" s="303" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C107" s="299" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D107" s="312" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E107" s="334" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F107" s="313" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G107" s="304"/>
       <c r="H107" s="312"/>
@@ -19997,19 +20168,19 @@
     <row r="108">
       <c r="A108" s="315"/>
       <c r="B108" s="332" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C108" s="336" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D108" s="312" t="s">
         <v>38</v>
       </c>
       <c r="E108" s="334" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F108" s="334" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G108" s="304"/>
       <c r="H108" s="312"/>
@@ -20018,19 +20189,19 @@
     <row r="109">
       <c r="A109" s="315"/>
       <c r="B109" s="303" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C109" s="299" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D109" s="312" t="s">
         <v>45</v>
       </c>
       <c r="E109" s="334" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F109" s="334" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G109" s="304"/>
       <c r="H109" s="312"/>
@@ -20039,10 +20210,10 @@
     <row r="110">
       <c r="A110" s="356"/>
       <c r="B110" s="307" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C110" s="308" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D110" s="312" t="s">
         <v>8</v>
@@ -20060,10 +20231,10 @@
     <row r="111">
       <c r="A111" s="356"/>
       <c r="B111" s="307" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C111" s="308" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D111" s="312" t="s">
         <v>8</v>
@@ -20081,19 +20252,19 @@
     <row r="112">
       <c r="A112" s="369"/>
       <c r="B112" s="323" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C112" s="324" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D112" s="325" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E112" s="324" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F112" s="326" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G112" s="328"/>
       <c r="H112" s="327"/>
@@ -20112,17 +20283,17 @@
     </row>
     <row r="114">
       <c r="A114" s="59" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B114" s="73"/>
       <c r="C114" s="75" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D114" s="73"/>
       <c r="E114" s="76"/>
       <c r="F114" s="68"/>
       <c r="G114" s="285" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="H114" s="73"/>
       <c r="I114" s="69"/>
@@ -20130,10 +20301,10 @@
     <row r="115">
       <c r="A115" s="86"/>
       <c r="B115" s="201" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C115" s="71" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D115" s="227" t="s">
         <v>52</v>
@@ -20142,10 +20313,10 @@
         <v>19</v>
       </c>
       <c r="F115" s="201" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G115" s="92" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H115" s="94"/>
       <c r="I115" s="286"/>
@@ -20153,19 +20324,19 @@
     <row r="116">
       <c r="A116" s="90"/>
       <c r="B116" s="201" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C116" s="229" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D116" s="227" t="s">
         <v>54</v>
       </c>
       <c r="E116" s="202" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F116" s="201" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G116" s="92"/>
       <c r="H116" s="94"/>
@@ -20174,19 +20345,19 @@
     <row r="117">
       <c r="A117" s="90"/>
       <c r="B117" s="201" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C117" s="229" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D117" s="227" t="s">
         <v>56</v>
       </c>
       <c r="E117" s="202" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F117" s="201" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G117" s="92"/>
       <c r="H117" s="94"/>
@@ -20198,10 +20369,10 @@
         <v>34</v>
       </c>
       <c r="C118" s="80" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D118" s="79" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E118" s="81">
         <v>1.0</v>
@@ -20210,29 +20381,29 @@
         <v>14</v>
       </c>
       <c r="G118" s="246" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H118" s="370" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="I118" s="82"/>
     </row>
     <row r="119">
       <c r="A119" s="70"/>
       <c r="B119" s="94" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C119" s="71" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D119" s="87" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E119" s="212" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F119" s="212" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G119" s="79"/>
       <c r="H119" s="370"/>
@@ -20241,19 +20412,19 @@
     <row r="120">
       <c r="A120" s="218"/>
       <c r="B120" s="216" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C120" s="236" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D120" s="237" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E120" s="236" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F120" s="238" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G120" s="288"/>
       <c r="H120" s="371"/>
@@ -20272,11 +20443,11 @@
     </row>
     <row r="122">
       <c r="A122" s="96" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B122" s="97"/>
       <c r="C122" s="98" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D122" s="97"/>
       <c r="E122" s="99"/>
@@ -20288,10 +20459,10 @@
     <row r="123">
       <c r="A123" s="373"/>
       <c r="B123" s="256" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C123" s="254" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D123" s="255" t="s">
         <v>52</v>
@@ -20300,10 +20471,10 @@
         <v>19</v>
       </c>
       <c r="F123" s="256" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G123" s="107" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H123" s="257"/>
       <c r="I123" s="258"/>
@@ -20311,19 +20482,19 @@
     <row r="124">
       <c r="A124" s="374"/>
       <c r="B124" s="256" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C124" s="259" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D124" s="255" t="s">
         <v>54</v>
       </c>
       <c r="E124" s="253" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F124" s="256" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G124" s="260"/>
       <c r="H124" s="257"/>
@@ -20332,19 +20503,19 @@
     <row r="125">
       <c r="A125" s="374"/>
       <c r="B125" s="256" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C125" s="259" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D125" s="255" t="s">
         <v>56</v>
       </c>
       <c r="E125" s="253" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F125" s="256" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G125" s="260"/>
       <c r="H125" s="257"/>
@@ -20356,7 +20527,7 @@
         <v>34</v>
       </c>
       <c r="C126" s="105" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D126" s="104" t="s">
         <v>13</v>
@@ -20374,19 +20545,19 @@
     <row r="127">
       <c r="A127" s="374"/>
       <c r="B127" s="257" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C127" s="254" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D127" s="257" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E127" s="375" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F127" s="375" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G127" s="260"/>
       <c r="H127" s="257"/>
@@ -20395,19 +20566,19 @@
     <row r="128">
       <c r="A128" s="103"/>
       <c r="B128" s="257" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C128" s="254" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D128" s="263" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E128" s="261" t="s">
         <v>19</v>
       </c>
       <c r="F128" s="261" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G128" s="260"/>
       <c r="H128" s="263"/>
@@ -20416,19 +20587,19 @@
     <row r="129">
       <c r="A129" s="268"/>
       <c r="B129" s="278" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C129" s="270" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D129" s="271" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E129" s="270" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F129" s="272" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G129" s="273"/>
       <c r="H129" s="376"/>
@@ -20447,19 +20618,19 @@
     </row>
     <row r="131">
       <c r="A131" s="96" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B131" s="377" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C131" s="98" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D131" s="378"/>
       <c r="E131" s="99"/>
       <c r="F131" s="100"/>
       <c r="G131" s="109" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="H131" s="378"/>
       <c r="I131" s="109"/>
@@ -20467,10 +20638,10 @@
     <row r="132">
       <c r="A132" s="373"/>
       <c r="B132" s="256" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C132" s="254" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D132" s="255" t="s">
         <v>52</v>
@@ -20479,10 +20650,10 @@
         <v>19</v>
       </c>
       <c r="F132" s="256" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G132" s="107" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H132" s="257"/>
       <c r="I132" s="258"/>
@@ -20490,19 +20661,19 @@
     <row r="133">
       <c r="A133" s="374"/>
       <c r="B133" s="256" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C133" s="259" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D133" s="255" t="s">
         <v>54</v>
       </c>
       <c r="E133" s="253" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F133" s="256" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G133" s="264"/>
       <c r="H133" s="265"/>
@@ -20511,19 +20682,19 @@
     <row r="134">
       <c r="A134" s="374"/>
       <c r="B134" s="256" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C134" s="259" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D134" s="255" t="s">
         <v>56</v>
       </c>
       <c r="E134" s="253" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F134" s="256" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G134" s="264"/>
       <c r="H134" s="265"/>
@@ -20535,7 +20706,7 @@
         <v>34</v>
       </c>
       <c r="C135" s="105" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D135" s="104" t="s">
         <v>13</v>
@@ -20547,7 +20718,7 @@
         <v>14</v>
       </c>
       <c r="G135" s="264" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="H135" s="265"/>
       <c r="I135" s="107"/>
@@ -20555,19 +20726,19 @@
     <row r="136">
       <c r="A136" s="103"/>
       <c r="B136" s="257" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C136" s="254" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D136" s="263" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E136" s="261" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F136" s="261" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G136" s="107"/>
       <c r="H136" s="265"/>
@@ -20576,22 +20747,22 @@
     <row r="137">
       <c r="A137" s="103"/>
       <c r="B137" s="257" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C137" s="254" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D137" s="263" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E137" s="261" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F137" s="261" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G137" s="107" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H137" s="265"/>
       <c r="I137" s="260"/>
@@ -20599,42 +20770,42 @@
     <row r="138">
       <c r="A138" s="103"/>
       <c r="B138" s="257" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C138" s="254" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D138" s="262" t="s">
         <v>13</v>
       </c>
       <c r="E138" s="261" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F138" s="261" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G138" s="260"/>
       <c r="H138" s="379" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="I138" s="260"/>
     </row>
     <row r="139">
       <c r="A139" s="103"/>
       <c r="B139" s="257" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C139" s="254" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D139" s="263" t="s">
         <v>38</v>
       </c>
       <c r="E139" s="261" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F139" s="261" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G139" s="260"/>
       <c r="H139" s="265"/>
@@ -20643,19 +20814,19 @@
     <row r="140">
       <c r="A140" s="268"/>
       <c r="B140" s="278" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C140" s="270" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D140" s="271" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E140" s="270" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F140" s="272" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G140" s="273"/>
       <c r="H140" s="273"/>
@@ -20674,11 +20845,11 @@
     </row>
     <row r="142">
       <c r="A142" s="96" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B142" s="97"/>
       <c r="C142" s="98" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D142" s="97"/>
       <c r="E142" s="99"/>
@@ -20690,10 +20861,10 @@
     <row r="143">
       <c r="A143" s="373"/>
       <c r="B143" s="256" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C143" s="254" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D143" s="255" t="s">
         <v>52</v>
@@ -20702,10 +20873,10 @@
         <v>19</v>
       </c>
       <c r="F143" s="256" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G143" s="107" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H143" s="257"/>
       <c r="I143" s="258"/>
@@ -20713,19 +20884,19 @@
     <row r="144">
       <c r="A144" s="274"/>
       <c r="B144" s="256" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C144" s="259" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D144" s="255" t="s">
         <v>54</v>
       </c>
       <c r="E144" s="253" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F144" s="256" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G144" s="107"/>
       <c r="H144" s="265"/>
@@ -20734,19 +20905,19 @@
     <row r="145">
       <c r="A145" s="274"/>
       <c r="B145" s="256" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C145" s="259" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D145" s="255" t="s">
         <v>56</v>
       </c>
       <c r="E145" s="253" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F145" s="256" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G145" s="107"/>
       <c r="H145" s="265"/>
@@ -20758,7 +20929,7 @@
         <v>34</v>
       </c>
       <c r="C146" s="105" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D146" s="104" t="s">
         <v>13</v>
@@ -20776,19 +20947,19 @@
     <row r="147">
       <c r="A147" s="273"/>
       <c r="B147" s="278" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C147" s="270" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D147" s="271" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E147" s="270" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F147" s="272" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G147" s="278"/>
       <c r="H147" s="273"/>
@@ -20807,11 +20978,11 @@
     </row>
     <row r="149">
       <c r="A149" s="380" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B149" s="381"/>
       <c r="C149" s="382" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D149" s="381"/>
       <c r="E149" s="383"/>
@@ -20823,10 +20994,10 @@
     <row r="150">
       <c r="A150" s="386"/>
       <c r="B150" s="387" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C150" s="388" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D150" s="389" t="s">
         <v>52</v>
@@ -20835,10 +21006,10 @@
         <v>19</v>
       </c>
       <c r="F150" s="387" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G150" s="391" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H150" s="392"/>
       <c r="I150" s="393"/>
@@ -20846,19 +21017,19 @@
     <row r="151">
       <c r="A151" s="394"/>
       <c r="B151" s="387" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C151" s="395" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D151" s="389" t="s">
         <v>54</v>
       </c>
       <c r="E151" s="390" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F151" s="387" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G151" s="391"/>
       <c r="H151" s="392"/>
@@ -20867,19 +21038,19 @@
     <row r="152">
       <c r="A152" s="394"/>
       <c r="B152" s="387" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C152" s="395" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D152" s="389" t="s">
         <v>56</v>
       </c>
       <c r="E152" s="390" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F152" s="387" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G152" s="391"/>
       <c r="H152" s="392"/>
@@ -20891,7 +21062,7 @@
         <v>34</v>
       </c>
       <c r="C153" s="388" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D153" s="392" t="s">
         <v>13</v>
@@ -20903,10 +21074,10 @@
         <v>14</v>
       </c>
       <c r="G153" s="391" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H153" s="397" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="I153" s="391"/>
     </row>
@@ -20916,41 +21087,41 @@
         <v>36</v>
       </c>
       <c r="C154" s="388" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D154" s="398" t="s">
         <v>38</v>
       </c>
       <c r="E154" s="396" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F154" s="396" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G154" s="391" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H154" s="397" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I154" s="399"/>
     </row>
     <row r="155">
       <c r="A155" s="394"/>
       <c r="B155" s="392" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C155" s="388" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="D155" s="398" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E155" s="396" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F155" s="396" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G155" s="399"/>
       <c r="H155" s="396"/>
@@ -20959,42 +21130,42 @@
     <row r="156">
       <c r="A156" s="400"/>
       <c r="B156" s="392" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C156" s="401" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D156" s="398" t="s">
         <v>24</v>
       </c>
       <c r="E156" s="396" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F156" s="396" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G156" s="399"/>
       <c r="H156" s="397" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="I156" s="399"/>
     </row>
     <row r="157">
       <c r="A157" s="402"/>
       <c r="B157" s="403" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C157" s="404" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D157" s="398" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E157" s="404" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F157" s="405" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G157" s="406"/>
       <c r="H157" s="407"/>
@@ -21013,17 +21184,17 @@
     </row>
     <row r="159">
       <c r="A159" s="408" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B159" s="409"/>
       <c r="C159" s="410" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D159" s="409"/>
       <c r="E159" s="411"/>
       <c r="F159" s="412"/>
       <c r="G159" s="413" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="H159" s="381"/>
       <c r="I159" s="385"/>
@@ -21031,10 +21202,10 @@
     <row r="160">
       <c r="A160" s="386"/>
       <c r="B160" s="387" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C160" s="388" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D160" s="389" t="s">
         <v>52</v>
@@ -21043,10 +21214,10 @@
         <v>19</v>
       </c>
       <c r="F160" s="387" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G160" s="391" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H160" s="392"/>
       <c r="I160" s="393"/>
@@ -21054,19 +21225,19 @@
     <row r="161">
       <c r="A161" s="414"/>
       <c r="B161" s="387" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C161" s="395" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D161" s="389" t="s">
         <v>54</v>
       </c>
       <c r="E161" s="390" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F161" s="387" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G161" s="415"/>
       <c r="H161" s="416"/>
@@ -21075,19 +21246,19 @@
     <row r="162">
       <c r="A162" s="414"/>
       <c r="B162" s="387" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C162" s="395" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D162" s="389" t="s">
         <v>56</v>
       </c>
       <c r="E162" s="390" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F162" s="387" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G162" s="415"/>
       <c r="H162" s="416"/>
@@ -21099,7 +21270,7 @@
         <v>34</v>
       </c>
       <c r="C163" s="418" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D163" s="417" t="s">
         <v>13</v>
@@ -21117,19 +21288,19 @@
     <row r="164">
       <c r="A164" s="420"/>
       <c r="B164" s="403" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C164" s="404" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D164" s="398" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E164" s="404" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F164" s="405" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G164" s="421"/>
       <c r="H164" s="406"/>
@@ -21148,11 +21319,11 @@
     </row>
     <row r="166">
       <c r="A166" s="398" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B166" s="416"/>
       <c r="C166" s="422" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D166" s="416"/>
       <c r="E166" s="423"/>
@@ -21164,10 +21335,10 @@
     <row r="167">
       <c r="A167" s="424"/>
       <c r="B167" s="425" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C167" s="395" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D167" s="392" t="s">
         <v>13</v>
@@ -21183,16 +21354,16 @@
     <row r="168">
       <c r="A168" s="392"/>
       <c r="B168" s="425" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C168" s="388" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D168" s="392" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E168" s="396" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F168" s="423"/>
       <c r="G168" s="416"/>
@@ -21202,16 +21373,16 @@
     <row r="169">
       <c r="A169" s="392"/>
       <c r="B169" s="425" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C169" s="388" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D169" s="398" t="s">
         <v>38</v>
       </c>
       <c r="E169" s="396" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F169" s="423"/>
       <c r="G169" s="416"/>
@@ -21298,7 +21469,7 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C5" s="173"/>
       <c r="D5" s="15"/>
@@ -21330,7 +21501,7 @@
     </row>
     <row r="8">
       <c r="A8" s="59" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B8" s="73"/>
       <c r="C8" s="75"/>
@@ -21344,42 +21515,42 @@
     <row r="9">
       <c r="A9" s="199"/>
       <c r="B9" s="201" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D9" s="426" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="202" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F9" s="201" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G9" s="94"/>
       <c r="H9" s="94" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="I9" s="286"/>
     </row>
     <row r="10">
       <c r="A10" s="90"/>
       <c r="B10" s="201" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C10" s="229" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="D10" s="426" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="202" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F10" s="201" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G10" s="94"/>
       <c r="H10" s="70"/>
@@ -21388,19 +21559,19 @@
     <row r="11">
       <c r="A11" s="90"/>
       <c r="B11" s="201" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C11" s="229" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="D11" s="426" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="202" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F11" s="201" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G11" s="94"/>
       <c r="H11" s="70"/>
@@ -21409,19 +21580,19 @@
     <row r="12">
       <c r="A12" s="83"/>
       <c r="B12" s="201" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C12" s="71" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="D12" s="426" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="212" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F12" s="212" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G12" s="79"/>
       <c r="H12" s="84"/>
@@ -21430,19 +21601,19 @@
     <row r="13">
       <c r="A13" s="287"/>
       <c r="B13" s="94" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C13" s="236" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="D13" s="426" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="236" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F13" s="238" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G13" s="288"/>
       <c r="H13" s="287"/>
@@ -21470,32 +21641,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="427" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B1" s="428"/>
     </row>
     <row r="2">
       <c r="A2" s="429" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B2" s="430" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="429" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B3" s="430" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="429" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B4" s="430" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5">
@@ -21504,18 +21675,18 @@
     </row>
     <row r="6">
       <c r="A6" s="429" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B6" s="430" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="429" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B7" s="430" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8">
@@ -21528,48 +21699,48 @@
     </row>
     <row r="10">
       <c r="A10" s="435" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B10" s="428"/>
     </row>
     <row r="11">
       <c r="A11" s="436" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B11" s="437" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="436" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B12" s="437" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="436" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B13" s="437" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="436" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B14" s="437" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="436" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B15" s="437" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="16">
@@ -21578,16 +21749,16 @@
     </row>
     <row r="17">
       <c r="A17" s="438" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B17" s="428"/>
     </row>
     <row r="18">
       <c r="A18" s="439" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B18" s="440" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="19">
@@ -21596,18 +21767,18 @@
     </row>
     <row r="20">
       <c r="A20" s="439" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B20" s="440" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="439" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B21" s="440" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="22">
@@ -21616,29 +21787,29 @@
     </row>
     <row r="23">
       <c r="A23" s="443" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B23" s="428"/>
     </row>
     <row r="24">
       <c r="A24" s="444" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B24" s="445" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="444" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B25" s="445" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="446" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B26" s="433"/>
     </row>
@@ -21663,23 +21834,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="117" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="447" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B2" s="448" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="117" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B3" s="448" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4">
@@ -21710,18 +21881,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="449" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B1" s="449" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C1" s="449" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="450" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B2" s="451" t="s">
         <v>8</v>
@@ -21732,7 +21903,7 @@
     </row>
     <row r="3">
       <c r="A3" s="450" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B3" s="451" t="s">
         <v>49</v>
@@ -21743,29 +21914,29 @@
     </row>
     <row r="4">
       <c r="A4" s="450" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B4" s="451" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C4" s="451" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="450" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B5" s="451" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="451" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="450" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B6" s="451" t="s">
         <v>49</v>
@@ -21776,43 +21947,43 @@
     </row>
     <row r="7">
       <c r="A7" s="450" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B7" s="451" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="451" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="450" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B8" s="451" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="451" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="450" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B9" s="451" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="451" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="450" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B10" s="451" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="451" t="s">
         <v>61</v>
@@ -21820,10 +21991,10 @@
     </row>
     <row r="11">
       <c r="A11" s="450" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B11" s="451" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C11" s="451" t="s">
         <v>61</v>
@@ -21831,46 +22002,46 @@
     </row>
     <row r="12">
       <c r="A12" s="450" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B12" s="451" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C12" s="451" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="450" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B13" s="451" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C13" s="451" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="450" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B14" s="451" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C14" s="451" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="450" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B15" s="451" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C15" s="451" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="16">
@@ -21880,43 +22051,43 @@
     </row>
     <row r="17">
       <c r="A17" s="450" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B17" s="451" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C17" s="451" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="450" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B18" s="451" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C18" s="451" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="450" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B19" s="451" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="451" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="450" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B20" s="451" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C20" s="451" t="s">
         <v>69</v>
@@ -21924,7 +22095,7 @@
     </row>
     <row r="21">
       <c r="A21" s="450" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B21" s="451" t="s">
         <v>8</v>
@@ -21935,21 +22106,21 @@
     </row>
     <row r="22">
       <c r="A22" s="450" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B22" s="451" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="451" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="450" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B23" s="451" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C23" s="451" t="s">
         <v>40</v>
@@ -21962,43 +22133,43 @@
     </row>
     <row r="25">
       <c r="A25" s="450" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B25" s="451" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C25" s="451" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="450" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B26" s="451" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C26" s="451" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="450" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B27" s="451" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C27" s="451" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="450" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B28" s="451" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C28" s="451" t="s">
         <v>69</v>
@@ -22006,24 +22177,24 @@
     </row>
     <row r="29">
       <c r="A29" s="450" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B29" s="451" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C29" s="451" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="450" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B30" s="451" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C30" s="451" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="31">
@@ -22033,24 +22204,24 @@
     </row>
     <row r="32">
       <c r="A32" s="450" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B32" s="451" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C32" s="451" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="450" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B33" s="451" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C33" s="451" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="34">
@@ -22060,10 +22231,10 @@
     </row>
     <row r="35">
       <c r="A35" s="450" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B35" s="451" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C35" s="451" t="s">
         <v>65</v>
